--- a/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,24 @@
     <t>['17', '55']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['51', '90+3']</t>
+  </si>
+  <si>
+    <t>['56', '66', '76', '77', '87']</t>
+  </si>
+  <si>
+    <t>['20', '24', '84', '90+1']</t>
+  </si>
+  <si>
+    <t>['19', '24']</t>
+  </si>
+  <si>
+    <t>['6', '83', '90+2']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
@@ -809,6 +827,18 @@
   </si>
   <si>
     <t>['54', '80']</t>
+  </si>
+  <si>
+    <t>['71', '90+1']</t>
+  </si>
+  <si>
+    <t>['13', '28']</t>
+  </si>
+  <si>
+    <t>['11', '88']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1444,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1796,7 +1826,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1883,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT4">
         <v>1.2</v>
@@ -1987,7 +2017,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2268,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2751,7 +2781,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2841,7 +2871,7 @@
         <v>1.1</v>
       </c>
       <c r="AT9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2942,7 +2972,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3032,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU10">
         <v>1.73</v>
@@ -3133,7 +3163,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3324,7 +3354,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>15</v>
@@ -3411,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT12">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3602,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT13">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU13">
         <v>1.9</v>
@@ -3793,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT14">
         <v>1.6</v>
@@ -3984,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4088,7 +4118,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4175,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4279,7 +4309,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>11</v>
@@ -4366,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT17">
         <v>2.11</v>
@@ -4470,7 +4500,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4661,7 +4691,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4852,7 +4882,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5234,7 +5264,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5425,7 +5455,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5616,7 +5646,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5703,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU24">
         <v>1.97</v>
@@ -5807,7 +5837,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5897,7 +5927,7 @@
         <v>1.1</v>
       </c>
       <c r="AT25">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU25">
         <v>1.38</v>
@@ -5998,7 +6028,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6085,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6189,7 +6219,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6279,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU27">
         <v>1.61</v>
@@ -6467,7 +6497,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT28">
         <v>2.11</v>
@@ -6571,7 +6601,7 @@
         <v>104</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>13</v>
@@ -6658,10 +6688,10 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT29">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU29">
         <v>1.61</v>
@@ -6762,7 +6792,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6849,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT30">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU30">
         <v>1.61</v>
@@ -7040,10 +7070,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU31">
         <v>1.64</v>
@@ -7231,10 +7261,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU32">
         <v>2.41</v>
@@ -7422,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7526,7 +7556,7 @@
         <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7717,7 +7747,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -8672,7 +8702,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8863,7 +8893,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9054,7 +9084,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9144,7 +9174,7 @@
         <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU42">
         <v>1.48</v>
@@ -9245,7 +9275,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9332,10 +9362,10 @@
         <v>0.75</v>
       </c>
       <c r="AS43">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU43">
         <v>2.58</v>
@@ -9526,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU44">
         <v>1.96</v>
@@ -9714,7 +9744,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT45">
         <v>1.5</v>
@@ -9818,7 +9848,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -9905,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10096,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU47">
         <v>1.74</v>
@@ -10287,10 +10317,10 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT48">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU48">
         <v>2.04</v>
@@ -10391,7 +10421,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10478,10 +10508,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU49">
         <v>2.09</v>
@@ -10582,7 +10612,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>12</v>
@@ -10964,7 +10994,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11537,7 +11567,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11624,7 +11654,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT55">
         <v>1.3</v>
@@ -11728,7 +11758,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -12197,7 +12227,7 @@
         <v>0.67</v>
       </c>
       <c r="AS58">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12391,7 +12421,7 @@
         <v>1.7</v>
       </c>
       <c r="AT59">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU59">
         <v>2.03</v>
@@ -12492,7 +12522,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -12579,10 +12609,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT60">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU60">
         <v>2.31</v>
@@ -12770,10 +12800,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU61">
         <v>1.91</v>
@@ -12874,7 +12904,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12964,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU62">
         <v>1.96</v>
@@ -13065,7 +13095,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13152,10 +13182,10 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU63">
         <v>1.62</v>
@@ -13256,7 +13286,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13343,7 +13373,7 @@
         <v>1.75</v>
       </c>
       <c r="AS64">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT64">
         <v>1.5</v>
@@ -13447,7 +13477,7 @@
         <v>83</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13638,7 +13668,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13829,7 +13859,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14020,7 +14050,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14298,7 +14328,7 @@
         <v>0.2</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT69">
         <v>0.6</v>
@@ -14402,7 +14432,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14680,7 +14710,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT71">
         <v>1.1</v>
@@ -14784,7 +14814,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -14874,7 +14904,7 @@
         <v>0.9</v>
       </c>
       <c r="AT72">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU72">
         <v>2.01</v>
@@ -15166,7 +15196,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15256,7 +15286,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15357,7 +15387,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15447,7 +15477,7 @@
         <v>1.7</v>
       </c>
       <c r="AT75">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU75">
         <v>2.02</v>
@@ -15548,7 +15578,7 @@
         <v>83</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15638,7 +15668,7 @@
         <v>1.3</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU76">
         <v>1.65</v>
@@ -15739,7 +15769,7 @@
         <v>83</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15826,10 +15856,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT77">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU77">
         <v>1.49</v>
@@ -15930,7 +15960,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16017,7 +16047,7 @@
         <v>1.6</v>
       </c>
       <c r="AS78">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT78">
         <v>1.5</v>
@@ -16121,7 +16151,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16208,7 +16238,7 @@
         <v>0.8</v>
       </c>
       <c r="AS79">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT79">
         <v>1.3</v>
@@ -16312,7 +16342,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -16402,7 +16432,7 @@
         <v>0.9</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU80">
         <v>1.93</v>
@@ -16503,7 +16533,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>-1</v>
@@ -16590,7 +16620,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16694,7 +16724,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16885,7 +16915,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17076,7 +17106,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17354,7 +17384,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT85">
         <v>0.7</v>
@@ -17458,7 +17488,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17545,7 +17575,7 @@
         <v>1.2</v>
       </c>
       <c r="AS86">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT86">
         <v>1.2</v>
@@ -17649,7 +17679,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17739,7 +17769,7 @@
         <v>1.3</v>
       </c>
       <c r="AT87">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU87">
         <v>1.48</v>
@@ -17840,7 +17870,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17930,7 +17960,7 @@
         <v>1.7</v>
       </c>
       <c r="AT88">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU88">
         <v>1.97</v>
@@ -18118,7 +18148,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT89">
         <v>0.6</v>
@@ -18309,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18413,7 +18443,7 @@
         <v>83</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18694,7 +18724,7 @@
         <v>1.8</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU92">
         <v>1.71</v>
@@ -18795,7 +18825,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18885,7 +18915,7 @@
         <v>0.9</v>
       </c>
       <c r="AT93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU93">
         <v>1.84</v>
@@ -18986,7 +19016,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19177,7 +19207,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19458,7 +19488,7 @@
         <v>2</v>
       </c>
       <c r="AT96">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU96">
         <v>1.52</v>
@@ -19649,7 +19679,7 @@
         <v>2.4</v>
       </c>
       <c r="AT97">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU97">
         <v>2.29</v>
@@ -19750,7 +19780,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -19837,7 +19867,7 @@
         <v>1.6</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT98">
         <v>1.6</v>
@@ -19941,7 +19971,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -20028,7 +20058,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT99">
         <v>2.11</v>
@@ -20219,7 +20249,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT100">
         <v>1.2</v>
@@ -20323,7 +20353,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20410,7 +20440,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT101">
         <v>0.7</v>
@@ -20514,7 +20544,7 @@
         <v>83</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20795,7 +20825,7 @@
         <v>2.4</v>
       </c>
       <c r="AT103">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU103">
         <v>2.1</v>
@@ -20896,7 +20926,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>-1</v>
@@ -20986,7 +21016,7 @@
         <v>1.8</v>
       </c>
       <c r="AT104">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU104">
         <v>1.66</v>
@@ -21087,7 +21117,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21365,7 +21395,7 @@
         <v>0.29</v>
       </c>
       <c r="AS106">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT106">
         <v>0.6</v>
@@ -21469,7 +21499,7 @@
         <v>83</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21660,7 +21690,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21941,7 +21971,7 @@
         <v>0.9</v>
       </c>
       <c r="AT109">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU109">
         <v>1.73</v>
@@ -22042,7 +22072,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>14</v>
@@ -22129,7 +22159,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT110">
         <v>1.1</v>
@@ -22233,7 +22263,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22511,7 +22541,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT112">
         <v>0.7</v>
@@ -22705,7 +22735,7 @@
         <v>1.4</v>
       </c>
       <c r="AT113">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU113">
         <v>1.6</v>
@@ -22806,7 +22836,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22896,7 +22926,7 @@
         <v>2</v>
       </c>
       <c r="AT114">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU114">
         <v>1.56</v>
@@ -22997,7 +23027,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>11</v>
@@ -23084,7 +23114,7 @@
         <v>2.17</v>
       </c>
       <c r="AS115">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT115">
         <v>2.11</v>
@@ -23188,7 +23218,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>10</v>
@@ -23275,10 +23305,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT116">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>1.76</v>
@@ -23379,7 +23409,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>14</v>
@@ -23466,7 +23496,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23657,7 +23687,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT118">
         <v>1.6</v>
@@ -23952,7 +23982,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>11</v>
@@ -24042,7 +24072,7 @@
         <v>2.4</v>
       </c>
       <c r="AT120">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU120">
         <v>2</v>
@@ -24230,7 +24260,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT121">
         <v>1.1</v>
@@ -24334,7 +24364,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -24421,7 +24451,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT122">
         <v>1.6</v>
@@ -24525,7 +24555,7 @@
         <v>95</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24615,7 +24645,7 @@
         <v>2.4</v>
       </c>
       <c r="AT123">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU123">
         <v>2.05</v>
@@ -24716,7 +24746,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24806,7 +24836,7 @@
         <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU124">
         <v>1.57</v>
@@ -24907,7 +24937,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -24994,7 +25024,7 @@
         <v>0.88</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT125">
         <v>0.7</v>
@@ -25098,7 +25128,7 @@
         <v>165</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>10</v>
@@ -25185,7 +25215,7 @@
         <v>0.71</v>
       </c>
       <c r="AS126">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25376,7 +25406,7 @@
         <v>2.29</v>
       </c>
       <c r="AS127">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT127">
         <v>2.11</v>
@@ -25567,10 +25597,10 @@
         <v>0.71</v>
       </c>
       <c r="AS128">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT128">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU128">
         <v>2.21</v>
@@ -25671,7 +25701,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25758,10 +25788,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT129">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU129">
         <v>2.09</v>
@@ -26244,7 +26274,7 @@
         <v>83</v>
       </c>
       <c r="P132" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26435,7 +26465,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26525,7 +26555,7 @@
         <v>1.4</v>
       </c>
       <c r="AT133">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU133">
         <v>1.81</v>
@@ -26626,7 +26656,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27095,10 +27125,10 @@
         <v>1.86</v>
       </c>
       <c r="AS136">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT136">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU136">
         <v>1.94</v>
@@ -27199,7 +27229,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27286,7 +27316,7 @@
         <v>1.63</v>
       </c>
       <c r="AS137">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT137">
         <v>1.3</v>
@@ -27581,7 +27611,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>11</v>
@@ -27668,7 +27698,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT139">
         <v>1.6</v>
@@ -27862,7 +27892,7 @@
         <v>2</v>
       </c>
       <c r="AT140">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU140">
         <v>1.58</v>
@@ -28050,10 +28080,10 @@
         <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT141">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU141">
         <v>2.16</v>
@@ -28241,10 +28271,10 @@
         <v>0.63</v>
       </c>
       <c r="AS142">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT142">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU142">
         <v>2.14</v>
@@ -28345,7 +28375,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28432,10 +28462,10 @@
         <v>1.75</v>
       </c>
       <c r="AS143">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT143">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU143">
         <v>2.06</v>
@@ -28536,7 +28566,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -28623,7 +28653,7 @@
         <v>0.75</v>
       </c>
       <c r="AS144">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT144">
         <v>1</v>
@@ -28727,7 +28757,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -28814,7 +28844,7 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT145">
         <v>2.11</v>
@@ -28918,7 +28948,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29491,7 +29521,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29682,7 +29712,7 @@
         <v>83</v>
       </c>
       <c r="P150" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>1</v>
@@ -30255,7 +30285,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30397,6 +30427,1343 @@
       </c>
       <c r="BK153">
         <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2818153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>74</v>
+      </c>
+      <c r="H154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>83</v>
+      </c>
+      <c r="P154" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q154">
+        <v>10</v>
+      </c>
+      <c r="R154">
+        <v>6</v>
+      </c>
+      <c r="S154">
+        <v>16</v>
+      </c>
+      <c r="T154">
+        <v>2.38</v>
+      </c>
+      <c r="U154">
+        <v>2.2</v>
+      </c>
+      <c r="V154">
+        <v>4.33</v>
+      </c>
+      <c r="W154">
+        <v>1.36</v>
+      </c>
+      <c r="X154">
+        <v>3</v>
+      </c>
+      <c r="Y154">
+        <v>2.63</v>
+      </c>
+      <c r="Z154">
+        <v>1.44</v>
+      </c>
+      <c r="AA154">
+        <v>6.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.11</v>
+      </c>
+      <c r="AC154">
+        <v>1.8</v>
+      </c>
+      <c r="AD154">
+        <v>3.8</v>
+      </c>
+      <c r="AE154">
+        <v>4.2</v>
+      </c>
+      <c r="AF154">
+        <v>1.02</v>
+      </c>
+      <c r="AG154">
+        <v>11</v>
+      </c>
+      <c r="AH154">
+        <v>1.22</v>
+      </c>
+      <c r="AI154">
+        <v>3.74</v>
+      </c>
+      <c r="AJ154">
+        <v>1.9</v>
+      </c>
+      <c r="AK154">
+        <v>1.9</v>
+      </c>
+      <c r="AL154">
+        <v>1.91</v>
+      </c>
+      <c r="AM154">
+        <v>1.8</v>
+      </c>
+      <c r="AN154">
+        <v>1.17</v>
+      </c>
+      <c r="AO154">
+        <v>1.19</v>
+      </c>
+      <c r="AP154">
+        <v>2.2</v>
+      </c>
+      <c r="AQ154">
+        <v>1.67</v>
+      </c>
+      <c r="AR154">
+        <v>1</v>
+      </c>
+      <c r="AS154">
+        <v>1.6</v>
+      </c>
+      <c r="AT154">
+        <v>1</v>
+      </c>
+      <c r="AU154">
+        <v>2.05</v>
+      </c>
+      <c r="AV154">
+        <v>1.47</v>
+      </c>
+      <c r="AW154">
+        <v>3.52</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="AZ154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>0</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>0</v>
+      </c>
+      <c r="BG154">
+        <v>3</v>
+      </c>
+      <c r="BH154">
+        <v>4</v>
+      </c>
+      <c r="BI154">
+        <v>8</v>
+      </c>
+      <c r="BJ154">
+        <v>4</v>
+      </c>
+      <c r="BK154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2818156</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>73</v>
+      </c>
+      <c r="H155" t="s">
+        <v>69</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>186</v>
+      </c>
+      <c r="P155" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q155">
+        <v>10</v>
+      </c>
+      <c r="R155">
+        <v>5</v>
+      </c>
+      <c r="S155">
+        <v>15</v>
+      </c>
+      <c r="T155">
+        <v>3.25</v>
+      </c>
+      <c r="U155">
+        <v>2</v>
+      </c>
+      <c r="V155">
+        <v>3.25</v>
+      </c>
+      <c r="W155">
+        <v>1.5</v>
+      </c>
+      <c r="X155">
+        <v>2.5</v>
+      </c>
+      <c r="Y155">
+        <v>3.4</v>
+      </c>
+      <c r="Z155">
+        <v>1.3</v>
+      </c>
+      <c r="AA155">
+        <v>10</v>
+      </c>
+      <c r="AB155">
+        <v>1.06</v>
+      </c>
+      <c r="AC155">
+        <v>2.85</v>
+      </c>
+      <c r="AD155">
+        <v>2.95</v>
+      </c>
+      <c r="AE155">
+        <v>2.4</v>
+      </c>
+      <c r="AF155">
+        <v>1.05</v>
+      </c>
+      <c r="AG155">
+        <v>8</v>
+      </c>
+      <c r="AH155">
+        <v>1.33</v>
+      </c>
+      <c r="AI155">
+        <v>3</v>
+      </c>
+      <c r="AJ155">
+        <v>2.23</v>
+      </c>
+      <c r="AK155">
+        <v>1.58</v>
+      </c>
+      <c r="AL155">
+        <v>2</v>
+      </c>
+      <c r="AM155">
+        <v>1.73</v>
+      </c>
+      <c r="AN155">
+        <v>1.58</v>
+      </c>
+      <c r="AO155">
+        <v>1.28</v>
+      </c>
+      <c r="AP155">
+        <v>1.35</v>
+      </c>
+      <c r="AQ155">
+        <v>1</v>
+      </c>
+      <c r="AR155">
+        <v>1.22</v>
+      </c>
+      <c r="AS155">
+        <v>0.9</v>
+      </c>
+      <c r="AT155">
+        <v>1.4</v>
+      </c>
+      <c r="AU155">
+        <v>1.83</v>
+      </c>
+      <c r="AV155">
+        <v>1.39</v>
+      </c>
+      <c r="AW155">
+        <v>3.22</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>8</v>
+      </c>
+      <c r="BH155">
+        <v>8</v>
+      </c>
+      <c r="BI155">
+        <v>4</v>
+      </c>
+      <c r="BJ155">
+        <v>13</v>
+      </c>
+      <c r="BK155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2818152</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44996.46875</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>67</v>
+      </c>
+      <c r="H156" t="s">
+        <v>66</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156" t="s">
+        <v>187</v>
+      </c>
+      <c r="P156" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q156">
+        <v>11</v>
+      </c>
+      <c r="R156">
+        <v>6</v>
+      </c>
+      <c r="S156">
+        <v>17</v>
+      </c>
+      <c r="T156">
+        <v>3.4</v>
+      </c>
+      <c r="U156">
+        <v>2.1</v>
+      </c>
+      <c r="V156">
+        <v>2.88</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>2.75</v>
+      </c>
+      <c r="Y156">
+        <v>2.75</v>
+      </c>
+      <c r="Z156">
+        <v>1.4</v>
+      </c>
+      <c r="AA156">
+        <v>8</v>
+      </c>
+      <c r="AB156">
+        <v>1.08</v>
+      </c>
+      <c r="AC156">
+        <v>2.65</v>
+      </c>
+      <c r="AD156">
+        <v>3.1</v>
+      </c>
+      <c r="AE156">
+        <v>2.45</v>
+      </c>
+      <c r="AF156">
+        <v>1.03</v>
+      </c>
+      <c r="AG156">
+        <v>10</v>
+      </c>
+      <c r="AH156">
+        <v>1.25</v>
+      </c>
+      <c r="AI156">
+        <v>3.5</v>
+      </c>
+      <c r="AJ156">
+        <v>1.96</v>
+      </c>
+      <c r="AK156">
+        <v>1.84</v>
+      </c>
+      <c r="AL156">
+        <v>1.83</v>
+      </c>
+      <c r="AM156">
+        <v>1.83</v>
+      </c>
+      <c r="AN156">
+        <v>1.55</v>
+      </c>
+      <c r="AO156">
+        <v>1.3</v>
+      </c>
+      <c r="AP156">
+        <v>1.35</v>
+      </c>
+      <c r="AQ156">
+        <v>1.22</v>
+      </c>
+      <c r="AR156">
+        <v>1.56</v>
+      </c>
+      <c r="AS156">
+        <v>1.2</v>
+      </c>
+      <c r="AT156">
+        <v>1.5</v>
+      </c>
+      <c r="AU156">
+        <v>1.39</v>
+      </c>
+      <c r="AV156">
+        <v>1.5</v>
+      </c>
+      <c r="AW156">
+        <v>2.89</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>8</v>
+      </c>
+      <c r="BG156">
+        <v>5</v>
+      </c>
+      <c r="BH156">
+        <v>2</v>
+      </c>
+      <c r="BI156">
+        <v>4</v>
+      </c>
+      <c r="BJ156">
+        <v>10</v>
+      </c>
+      <c r="BK156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2818155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>75</v>
+      </c>
+      <c r="H157" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>5</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>6</v>
+      </c>
+      <c r="O157" t="s">
+        <v>188</v>
+      </c>
+      <c r="P157" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q157">
+        <v>6</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+      <c r="S157">
+        <v>9</v>
+      </c>
+      <c r="T157">
+        <v>1.57</v>
+      </c>
+      <c r="U157">
+        <v>2.75</v>
+      </c>
+      <c r="V157">
+        <v>8.5</v>
+      </c>
+      <c r="W157">
+        <v>1.29</v>
+      </c>
+      <c r="X157">
+        <v>3.5</v>
+      </c>
+      <c r="Y157">
+        <v>2.2</v>
+      </c>
+      <c r="Z157">
+        <v>1.62</v>
+      </c>
+      <c r="AA157">
+        <v>4.5</v>
+      </c>
+      <c r="AB157">
+        <v>1.18</v>
+      </c>
+      <c r="AC157">
+        <v>1.15</v>
+      </c>
+      <c r="AD157">
+        <v>6.85</v>
+      </c>
+      <c r="AE157">
+        <v>9.69</v>
+      </c>
+      <c r="AF157">
+        <v>1.01</v>
+      </c>
+      <c r="AG157">
+        <v>24.5</v>
+      </c>
+      <c r="AH157">
+        <v>1.13</v>
+      </c>
+      <c r="AI157">
+        <v>5.05</v>
+      </c>
+      <c r="AJ157">
+        <v>1.48</v>
+      </c>
+      <c r="AK157">
+        <v>2.35</v>
+      </c>
+      <c r="AL157">
+        <v>2.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.57</v>
+      </c>
+      <c r="AN157">
+        <v>1.03</v>
+      </c>
+      <c r="AO157">
+        <v>1.06</v>
+      </c>
+      <c r="AP157">
+        <v>3.6</v>
+      </c>
+      <c r="AQ157">
+        <v>2.44</v>
+      </c>
+      <c r="AR157">
+        <v>0.67</v>
+      </c>
+      <c r="AS157">
+        <v>2.5</v>
+      </c>
+      <c r="AT157">
+        <v>0.6</v>
+      </c>
+      <c r="AU157">
+        <v>2.18</v>
+      </c>
+      <c r="AV157">
+        <v>1.43</v>
+      </c>
+      <c r="AW157">
+        <v>3.61</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="AZ157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>9</v>
+      </c>
+      <c r="BG157">
+        <v>3</v>
+      </c>
+      <c r="BH157">
+        <v>6</v>
+      </c>
+      <c r="BI157">
+        <v>1</v>
+      </c>
+      <c r="BJ157">
+        <v>15</v>
+      </c>
+      <c r="BK157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2818157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44997.27083333334</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s">
+        <v>78</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>4</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>189</v>
+      </c>
+      <c r="P158" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q158">
+        <v>6</v>
+      </c>
+      <c r="R158">
+        <v>7</v>
+      </c>
+      <c r="S158">
+        <v>13</v>
+      </c>
+      <c r="T158">
+        <v>2.63</v>
+      </c>
+      <c r="U158">
+        <v>2.2</v>
+      </c>
+      <c r="V158">
+        <v>3.75</v>
+      </c>
+      <c r="W158">
+        <v>1.4</v>
+      </c>
+      <c r="X158">
+        <v>2.75</v>
+      </c>
+      <c r="Y158">
+        <v>2.75</v>
+      </c>
+      <c r="Z158">
+        <v>1.4</v>
+      </c>
+      <c r="AA158">
+        <v>7</v>
+      </c>
+      <c r="AB158">
+        <v>1.1</v>
+      </c>
+      <c r="AC158">
+        <v>1.8</v>
+      </c>
+      <c r="AD158">
+        <v>3.21</v>
+      </c>
+      <c r="AE158">
+        <v>3.1</v>
+      </c>
+      <c r="AF158">
+        <v>1.04</v>
+      </c>
+      <c r="AG158">
+        <v>13</v>
+      </c>
+      <c r="AH158">
+        <v>1.25</v>
+      </c>
+      <c r="AI158">
+        <v>3.6</v>
+      </c>
+      <c r="AJ158">
+        <v>1.8</v>
+      </c>
+      <c r="AK158">
+        <v>1.91</v>
+      </c>
+      <c r="AL158">
+        <v>1.8</v>
+      </c>
+      <c r="AM158">
+        <v>1.91</v>
+      </c>
+      <c r="AN158">
+        <v>1.25</v>
+      </c>
+      <c r="AO158">
+        <v>1.24</v>
+      </c>
+      <c r="AP158">
+        <v>1.68</v>
+      </c>
+      <c r="AQ158">
+        <v>1.56</v>
+      </c>
+      <c r="AR158">
+        <v>1.33</v>
+      </c>
+      <c r="AS158">
+        <v>1.7</v>
+      </c>
+      <c r="AT158">
+        <v>1.2</v>
+      </c>
+      <c r="AU158">
+        <v>2.02</v>
+      </c>
+      <c r="AV158">
+        <v>1.47</v>
+      </c>
+      <c r="AW158">
+        <v>3.49</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="AZ158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>8</v>
+      </c>
+      <c r="BG158">
+        <v>3</v>
+      </c>
+      <c r="BH158">
+        <v>12</v>
+      </c>
+      <c r="BI158">
+        <v>14</v>
+      </c>
+      <c r="BJ158">
+        <v>20</v>
+      </c>
+      <c r="BK158">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2818158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44997.27083333334</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" t="s">
+        <v>80</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159" t="s">
+        <v>190</v>
+      </c>
+      <c r="P159" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q159">
+        <v>3</v>
+      </c>
+      <c r="R159">
+        <v>7</v>
+      </c>
+      <c r="S159">
+        <v>10</v>
+      </c>
+      <c r="T159">
+        <v>3.5</v>
+      </c>
+      <c r="U159">
+        <v>2.2</v>
+      </c>
+      <c r="V159">
+        <v>2.75</v>
+      </c>
+      <c r="W159">
+        <v>1.36</v>
+      </c>
+      <c r="X159">
+        <v>3</v>
+      </c>
+      <c r="Y159">
+        <v>2.75</v>
+      </c>
+      <c r="Z159">
+        <v>1.4</v>
+      </c>
+      <c r="AA159">
+        <v>7</v>
+      </c>
+      <c r="AB159">
+        <v>1.1</v>
+      </c>
+      <c r="AC159">
+        <v>3.22</v>
+      </c>
+      <c r="AD159">
+        <v>3.65</v>
+      </c>
+      <c r="AE159">
+        <v>1.71</v>
+      </c>
+      <c r="AF159">
+        <v>1.04</v>
+      </c>
+      <c r="AG159">
+        <v>12.25</v>
+      </c>
+      <c r="AH159">
+        <v>1.28</v>
+      </c>
+      <c r="AI159">
+        <v>3.4</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.71</v>
+      </c>
+      <c r="AL159">
+        <v>1.8</v>
+      </c>
+      <c r="AM159">
+        <v>1.91</v>
+      </c>
+      <c r="AN159">
+        <v>1.6</v>
+      </c>
+      <c r="AO159">
+        <v>1.28</v>
+      </c>
+      <c r="AP159">
+        <v>1.38</v>
+      </c>
+      <c r="AQ159">
+        <v>1.89</v>
+      </c>
+      <c r="AR159">
+        <v>2</v>
+      </c>
+      <c r="AS159">
+        <v>1.8</v>
+      </c>
+      <c r="AT159">
+        <v>1.9</v>
+      </c>
+      <c r="AU159">
+        <v>1.84</v>
+      </c>
+      <c r="AV159">
+        <v>1.54</v>
+      </c>
+      <c r="AW159">
+        <v>3.38</v>
+      </c>
+      <c r="AX159">
+        <v>0</v>
+      </c>
+      <c r="AY159">
+        <v>0</v>
+      </c>
+      <c r="AZ159">
+        <v>0</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>0</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>5</v>
+      </c>
+      <c r="BG159">
+        <v>6</v>
+      </c>
+      <c r="BH159">
+        <v>5</v>
+      </c>
+      <c r="BI159">
+        <v>9</v>
+      </c>
+      <c r="BJ159">
+        <v>10</v>
+      </c>
+      <c r="BK159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2818159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44997.27083333334</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>77</v>
+      </c>
+      <c r="H160" t="s">
+        <v>68</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>191</v>
+      </c>
+      <c r="P160" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q160">
+        <v>5</v>
+      </c>
+      <c r="R160">
+        <v>5</v>
+      </c>
+      <c r="S160">
+        <v>10</v>
+      </c>
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
+        <v>2.4</v>
+      </c>
+      <c r="V160">
+        <v>3.4</v>
+      </c>
+      <c r="W160">
+        <v>1.33</v>
+      </c>
+      <c r="X160">
+        <v>3.25</v>
+      </c>
+      <c r="Y160">
+        <v>2.5</v>
+      </c>
+      <c r="Z160">
+        <v>1.5</v>
+      </c>
+      <c r="AA160">
+        <v>6</v>
+      </c>
+      <c r="AB160">
+        <v>1.13</v>
+      </c>
+      <c r="AC160">
+        <v>1.65</v>
+      </c>
+      <c r="AD160">
+        <v>3.64</v>
+      </c>
+      <c r="AE160">
+        <v>3.47</v>
+      </c>
+      <c r="AF160">
+        <v>1.02</v>
+      </c>
+      <c r="AG160">
+        <v>17</v>
+      </c>
+      <c r="AH160">
+        <v>1.18</v>
+      </c>
+      <c r="AI160">
+        <v>4.28</v>
+      </c>
+      <c r="AJ160">
+        <v>1.67</v>
+      </c>
+      <c r="AK160">
+        <v>2.1</v>
+      </c>
+      <c r="AL160">
+        <v>1.57</v>
+      </c>
+      <c r="AM160">
+        <v>2.25</v>
+      </c>
+      <c r="AN160">
+        <v>1.28</v>
+      </c>
+      <c r="AO160">
+        <v>1.25</v>
+      </c>
+      <c r="AP160">
+        <v>1.75</v>
+      </c>
+      <c r="AQ160">
+        <v>1.78</v>
+      </c>
+      <c r="AR160">
+        <v>0.67</v>
+      </c>
+      <c r="AS160">
+        <v>1.9</v>
+      </c>
+      <c r="AT160">
+        <v>0.6</v>
+      </c>
+      <c r="AU160">
+        <v>2.14</v>
+      </c>
+      <c r="AV160">
+        <v>1.37</v>
+      </c>
+      <c r="AW160">
+        <v>3.51</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>0</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>9</v>
+      </c>
+      <c r="BG160">
+        <v>3</v>
+      </c>
+      <c r="BH160">
+        <v>7</v>
+      </c>
+      <c r="BI160">
+        <v>5</v>
+      </c>
+      <c r="BJ160">
+        <v>16</v>
+      </c>
+      <c r="BK160">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT6" t="n">
         <v>1.9</v>
@@ -2121,7 +2121,7 @@
         <v>1.3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT9" t="n">
         <v>1.2</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT10" t="n">
         <v>1.2</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU11" t="n">
         <v>1.77</v>
@@ -3339,7 +3339,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT15" t="n">
         <v>1.9</v>
@@ -3948,7 +3948,7 @@
         <v>1.9</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT18" t="n">
         <v>1.5</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.86</v>
@@ -4963,7 +4963,7 @@
         <v>0.9</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU22" t="n">
         <v>1.34</v>
@@ -5166,7 +5166,7 @@
         <v>1.3</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU23" t="n">
         <v>1.47</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT25" t="n">
         <v>1.4</v>
@@ -6181,7 +6181,7 @@
         <v>1.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU28" t="n">
         <v>1.75</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT31" t="n">
         <v>1.4</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.8</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT36" t="n">
         <v>0.7</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>0.9</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU39" t="n">
         <v>1.77</v>
@@ -8617,7 +8617,7 @@
         <v>1.3</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU40" t="n">
         <v>1.44</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU50" t="n">
         <v>2</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT51" t="n">
         <v>0.7</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.52</v>
@@ -11253,10 +11253,10 @@
         <v>0.25</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU53" t="n">
         <v>1.5</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU54" t="n">
         <v>2.09</v>
@@ -11659,10 +11659,10 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU55" t="n">
         <v>1.59</v>
@@ -11865,7 +11865,7 @@
         <v>0.9</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU56" t="n">
         <v>1.83</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT59" t="n">
         <v>0.6</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT66" t="n">
         <v>0.7</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU67" t="n">
         <v>1.74</v>
@@ -14298,10 +14298,10 @@
         <v>2.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU68" t="n">
         <v>2.24</v>
@@ -14504,7 +14504,7 @@
         <v>0.9</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU69" t="n">
         <v>1.57</v>
@@ -14704,10 +14704,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU70" t="n">
         <v>1.48</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.84</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU73" t="n">
         <v>1.1</v>
@@ -15719,7 +15719,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT75" t="n">
         <v>0.6</v>
@@ -16534,7 +16534,7 @@
         <v>1.8</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU79" t="n">
         <v>1.88</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17343,10 +17343,10 @@
         <v>2.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU83" t="n">
         <v>1.64</v>
@@ -17546,10 +17546,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU84" t="n">
         <v>1.55</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT85" t="n">
         <v>0.7</v>
@@ -17955,7 +17955,7 @@
         <v>0.9</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU86" t="n">
         <v>1.69</v>
@@ -18358,7 +18358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT88" t="n">
         <v>1.2</v>
@@ -18564,7 +18564,7 @@
         <v>1.9</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU89" t="n">
         <v>2.15</v>
@@ -19170,7 +19170,7 @@
         <v>1.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT92" t="n">
         <v>0.6</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT94" t="n">
         <v>0.7</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT95" t="n">
         <v>1</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT96" t="n">
         <v>1.5</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT97" t="n">
         <v>0.6</v>
@@ -20391,7 +20391,7 @@
         <v>0.9</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU98" t="n">
         <v>1.73</v>
@@ -20591,10 +20591,10 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU99" t="n">
         <v>2.02</v>
@@ -20797,7 +20797,7 @@
         <v>1.8</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU100" t="n">
         <v>2.06</v>
@@ -21200,10 +21200,10 @@
         <v>0.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.22</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT103" t="n">
         <v>0.6</v>
@@ -21606,7 +21606,7 @@
         <v>1.57</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT104" t="n">
         <v>1.2</v>
@@ -21812,7 +21812,7 @@
         <v>1</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU105" t="n">
         <v>1.66</v>
@@ -22015,7 +22015,7 @@
         <v>1.2</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU106" t="n">
         <v>1.39</v>
@@ -22215,7 +22215,7 @@
         <v>1.57</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT107" t="n">
         <v>1.5</v>
@@ -22827,7 +22827,7 @@
         <v>1.6</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.9</v>
@@ -23027,10 +23027,10 @@
         <v>0.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU111" t="n">
         <v>1.25</v>
@@ -23433,7 +23433,7 @@
         <v>1.88</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT113" t="n">
         <v>1.9</v>
@@ -23636,7 +23636,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT114" t="n">
         <v>0.6</v>
@@ -23842,7 +23842,7 @@
         <v>1.7</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU115" t="n">
         <v>2.08</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT117" t="n">
         <v>1</v>
@@ -24451,7 +24451,7 @@
         <v>1.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU118" t="n">
         <v>2.01</v>
@@ -24651,10 +24651,10 @@
         <v>1.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU119" t="n">
         <v>1.33</v>
@@ -24854,7 +24854,7 @@
         <v>1.4</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT120" t="n">
         <v>1.5</v>
@@ -25060,7 +25060,7 @@
         <v>1.7</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>2.14</v>
@@ -25263,7 +25263,7 @@
         <v>1.9</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU122" t="n">
         <v>2.16</v>
@@ -25463,7 +25463,7 @@
         <v>1.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT123" t="n">
         <v>1.4</v>
@@ -25666,7 +25666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT124" t="n">
         <v>0.6</v>
@@ -26278,7 +26278,7 @@
         <v>1.8</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU127" t="n">
         <v>1.99</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT128" t="n">
         <v>0.6</v>
@@ -26887,7 +26887,7 @@
         <v>1.3</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.39</v>
@@ -26946,7 +26946,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>2818124</v>
+        <v>2818122</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -26966,12 +26966,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Pohronie</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Futura Humenné</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -26987,38 +26987,38 @@
         <v>2</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['30', '83']</t>
+          <t>['8', '76']</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['49']</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S131" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T131" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="U131" t="n">
         <v>2.2</v>
       </c>
       <c r="V131" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W131" t="n">
         <v>1.31</v>
@@ -27039,25 +27039,25 @@
         <v>1.12</v>
       </c>
       <c r="AC131" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="AD131" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE131" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AF131" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG131" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH131" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AI131" t="n">
-        <v>3.9</v>
+        <v>3.58</v>
       </c>
       <c r="AJ131" t="n">
         <v>1.85</v>
@@ -27066,40 +27066,40 @@
         <v>1.95</v>
       </c>
       <c r="AL131" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AM131" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="AN131" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AO131" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR131" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU131" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="AV131" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AW131" t="n">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="AX131" t="n">
         <v>0</v>
@@ -27129,19 +27129,19 @@
         <v>4</v>
       </c>
       <c r="BG131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH131" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ131" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BK131" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -27149,7 +27149,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>2818125</v>
+        <v>2818123</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -27169,140 +27169,140 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Tatran Prešov</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Slavoj Trebišov</t>
+          <t>FK Košice</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+2', '53']</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R132" t="n">
         <v>8</v>
       </c>
       <c r="S132" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T132" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="U132" t="n">
         <v>2.25</v>
       </c>
       <c r="V132" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="W132" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X132" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="Y132" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="Z132" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AA132" t="n">
         <v>5.5</v>
       </c>
       <c r="AB132" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC132" t="n">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="AD132" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AE132" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="AF132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH132" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AI132" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AJ132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR132" t="n">
         <v>1.75</v>
       </c>
-      <c r="AK132" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM132" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO132" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP132" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AQ132" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AR132" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>2.45</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AV132" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AW132" t="n">
-        <v>3.41</v>
+        <v>3.71</v>
       </c>
       <c r="AX132" t="n">
         <v>0</v>
@@ -27329,22 +27329,22 @@
         <v>0</v>
       </c>
       <c r="BF132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG132" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH132" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI132" t="n">
         <v>8</v>
       </c>
       <c r="BJ132" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BK132" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -27352,7 +27352,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>2818122</v>
+        <v>2818124</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -27372,12 +27372,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Pohronie</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Futura Humenné</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -27393,38 +27393,38 @@
         <v>2</v>
       </c>
       <c r="M133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>['8', '76']</t>
+          <t>['30', '83']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>['49']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S133" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T133" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="U133" t="n">
         <v>2.2</v>
       </c>
       <c r="V133" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W133" t="n">
         <v>1.31</v>
@@ -27445,25 +27445,25 @@
         <v>1.12</v>
       </c>
       <c r="AC133" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="AD133" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE133" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AF133" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG133" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH133" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AI133" t="n">
-        <v>3.58</v>
+        <v>3.9</v>
       </c>
       <c r="AJ133" t="n">
         <v>1.85</v>
@@ -27472,40 +27472,40 @@
         <v>1.95</v>
       </c>
       <c r="AL133" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AM133" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="AN133" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AO133" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR133" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="AV133" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AW133" t="n">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="AX133" t="n">
         <v>0</v>
@@ -27535,19 +27535,19 @@
         <v>4</v>
       </c>
       <c r="BG133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH133" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ133" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK133" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -27555,7 +27555,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>2818123</v>
+        <v>2818125</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -27575,140 +27575,140 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Tatran Prešov</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>FK Košice</t>
+          <t>Slavoj Trebišov</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
       <c r="N134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>['45+2', '53']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R134" t="n">
         <v>8</v>
       </c>
       <c r="S134" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T134" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="U134" t="n">
         <v>2.25</v>
       </c>
       <c r="V134" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X134" t="n">
         <v>3.1</v>
       </c>
-      <c r="W134" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X134" t="n">
-        <v>3.24</v>
-      </c>
       <c r="Y134" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Z134" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AA134" t="n">
         <v>5.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC134" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="AD134" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AE134" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="AF134" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH134" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AI134" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AJ134" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AK134" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AL134" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AM134" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="AN134" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO134" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR134" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU134" t="n">
         <v>1.75</v>
       </c>
-      <c r="AS134" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU134" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AV134" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AW134" t="n">
-        <v>3.71</v>
+        <v>3.41</v>
       </c>
       <c r="AX134" t="n">
         <v>0</v>
@@ -27735,22 +27735,22 @@
         <v>0</v>
       </c>
       <c r="BF134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG134" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH134" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BI134" t="n">
         <v>8</v>
       </c>
       <c r="BJ134" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK134" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -27902,7 +27902,7 @@
         <v>0.9</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU135" t="n">
         <v>1.72</v>
@@ -28308,7 +28308,7 @@
         <v>1.6</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU137" t="n">
         <v>2.03</v>
@@ -28508,7 +28508,7 @@
         <v>1.13</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -28714,7 +28714,7 @@
         <v>1.2</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU139" t="n">
         <v>1.34</v>
@@ -28914,7 +28914,7 @@
         <v>0.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT140" t="n">
         <v>0.6</v>
@@ -29117,7 +29117,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT141" t="n">
         <v>1.2</v>
@@ -29179,7 +29179,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>2818142</v>
+        <v>2818138</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -29199,140 +29199,140 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Šamorín</t>
+          <t>Žilina II</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Spartak Myjava</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['33', '41', '67']</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['43', '89']</t>
         </is>
       </c>
       <c r="Q142" t="n">
+        <v>2</v>
+      </c>
+      <c r="R142" t="n">
         <v>5</v>
       </c>
-      <c r="R142" t="n">
-        <v>9</v>
-      </c>
       <c r="S142" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T142" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="U142" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V142" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="W142" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="X142" t="n">
-        <v>2.67</v>
+        <v>3.4</v>
       </c>
       <c r="Y142" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="Z142" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AA142" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="AB142" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AC142" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AD142" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AE142" t="n">
-        <v>3.65</v>
+        <v>2.85</v>
       </c>
       <c r="AF142" t="n">
         <v>1.02</v>
       </c>
       <c r="AG142" t="n">
-        <v>14</v>
+        <v>19.75</v>
       </c>
       <c r="AH142" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AI142" t="n">
-        <v>3.95</v>
+        <v>4.75</v>
       </c>
       <c r="AJ142" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AK142" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="AL142" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AM142" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AO142" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.01</v>
+        <v>1.68</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.63</v>
       </c>
       <c r="AR142" t="n">
-        <v>0.63</v>
+        <v>1.75</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU142" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="AV142" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AW142" t="n">
-        <v>3.54</v>
+        <v>3.57</v>
       </c>
       <c r="AX142" t="n">
         <v>0</v>
@@ -29359,22 +29359,22 @@
         <v>0</v>
       </c>
       <c r="BF142" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BG142" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH142" t="n">
         <v>6</v>
       </c>
       <c r="BI142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK142" t="n">
         <v>9</v>
-      </c>
-      <c r="BJ142" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK142" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="143">
@@ -29382,7 +29382,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>2818138</v>
+        <v>2818140</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -29402,140 +29402,140 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Žilina II</t>
+          <t>Petržalka akadémia</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Spartak Myjava</t>
+          <t>Rača</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
       </c>
       <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>6</v>
+      </c>
+      <c r="R143" t="n">
         <v>3</v>
       </c>
-      <c r="L143" t="n">
-        <v>3</v>
-      </c>
-      <c r="M143" t="n">
-        <v>2</v>
-      </c>
-      <c r="N143" t="n">
-        <v>5</v>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>['33', '41', '67']</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>['43', '89']</t>
-        </is>
-      </c>
-      <c r="Q143" t="n">
-        <v>2</v>
-      </c>
-      <c r="R143" t="n">
-        <v>5</v>
-      </c>
       <c r="S143" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T143" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="U143" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V143" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="W143" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X143" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="Y143" t="n">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AA143" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AB143" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AC143" t="n">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="AD143" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AE143" t="n">
-        <v>2.85</v>
+        <v>4.5</v>
       </c>
       <c r="AF143" t="n">
         <v>1.02</v>
       </c>
       <c r="AG143" t="n">
-        <v>19.75</v>
+        <v>16</v>
       </c>
       <c r="AH143" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AI143" t="n">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="AJ143" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AK143" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AL143" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AM143" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="AN143" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="AO143" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="AR143" t="n">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="AV143" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AW143" t="n">
-        <v>3.57</v>
+        <v>3.34</v>
       </c>
       <c r="AX143" t="n">
         <v>0</v>
@@ -29562,22 +29562,22 @@
         <v>0</v>
       </c>
       <c r="BF143" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BG143" t="n">
         <v>5</v>
       </c>
       <c r="BH143" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BI143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ143" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BK143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -29585,7 +29585,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>2818140</v>
+        <v>2818142</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -29605,31 +29605,31 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Petržalka akadémia</t>
+          <t>Šamorín</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rača</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -29638,107 +29638,107 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>['17']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q144" t="n">
+        <v>5</v>
+      </c>
+      <c r="R144" t="n">
+        <v>9</v>
+      </c>
+      <c r="S144" t="n">
+        <v>14</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA144" t="n">
         <v>6</v>
       </c>
-      <c r="R144" t="n">
-        <v>3</v>
-      </c>
-      <c r="S144" t="n">
-        <v>9</v>
-      </c>
-      <c r="T144" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U144" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V144" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="W144" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X144" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Z144" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA144" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AB144" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AC144" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AD144" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="AE144" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="AF144" t="n">
         <v>1.02</v>
       </c>
       <c r="AG144" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH144" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AI144" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AJ144" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AK144" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="AL144" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AM144" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AN144" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AO144" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AP144" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AR144" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AU144" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="AV144" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AW144" t="n">
-        <v>3.34</v>
+        <v>3.54</v>
       </c>
       <c r="AX144" t="n">
         <v>0</v>
@@ -29765,22 +29765,22 @@
         <v>0</v>
       </c>
       <c r="BF144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH144" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BI144" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ144" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK144" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -29932,7 +29932,7 @@
         <v>1.6</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU145" t="n">
         <v>2.02</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -30335,10 +30335,10 @@
         <v>1.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU147" t="n">
         <v>1.89</v>
@@ -30538,10 +30538,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU148" t="n">
         <v>1.63</v>
@@ -30741,10 +30741,10 @@
         <v>1.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU149" t="n">
         <v>1.86</v>
@@ -30947,7 +30947,7 @@
         <v>0.9</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.69</v>
@@ -31350,7 +31350,7 @@
         <v>1.56</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT152" t="n">
         <v>1.5</v>
@@ -31553,10 +31553,10 @@
         <v>1.67</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU153" t="n">
         <v>1.38</v>
@@ -32365,7 +32365,7 @@
         <v>0.67</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT157" t="n">
         <v>0.6</v>
@@ -32427,7 +32427,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>2818157</v>
+        <v>2818159</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -32447,140 +32447,140 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Šamorín</t>
+          <t>Žilina II</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Pohronie</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
         <v>2</v>
       </c>
       <c r="L158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" t="n">
         <v>4</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>['20', '24', '84', '90+1']</t>
+          <t>['6', '83', '90+2']</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="Q158" t="n">
+        <v>5</v>
+      </c>
+      <c r="R158" t="n">
+        <v>5</v>
+      </c>
+      <c r="S158" t="n">
+        <v>10</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA158" t="n">
         <v>6</v>
       </c>
-      <c r="R158" t="n">
-        <v>7</v>
-      </c>
-      <c r="S158" t="n">
-        <v>13</v>
-      </c>
-      <c r="T158" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U158" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V158" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W158" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X158" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y158" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z158" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA158" t="n">
-        <v>7</v>
-      </c>
       <c r="AB158" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AC158" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AD158" t="n">
-        <v>3.21</v>
+        <v>3.64</v>
       </c>
       <c r="AE158" t="n">
-        <v>3.1</v>
+        <v>3.47</v>
       </c>
       <c r="AF158" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG158" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO158" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI158" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ158" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK158" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AL158" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM158" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN158" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO158" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AP158" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AR158" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AU158" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="AV158" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AW158" t="n">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="AX158" t="n">
         <v>0</v>
@@ -32607,22 +32607,22 @@
         <v>0</v>
       </c>
       <c r="BF158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG158" t="n">
         <v>3</v>
       </c>
       <c r="BH158" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BI158" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BJ158" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BK158" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -32630,7 +32630,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>2818158</v>
+        <v>2818157</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -32650,65 +32650,65 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Petržalka akadémia</t>
+          <t>Šamorín</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Tatran Prešov</t>
+          <t>Pohronie</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
         <v>4</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>['19', '24']</t>
+          <t>['20', '24', '84', '90+1']</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>['11', '88']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R159" t="n">
         <v>7</v>
       </c>
       <c r="S159" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T159" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U159" t="n">
         <v>2.2</v>
       </c>
       <c r="V159" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X159" t="n">
         <v>2.75</v>
-      </c>
-      <c r="W159" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X159" t="n">
-        <v>3</v>
       </c>
       <c r="Y159" t="n">
         <v>2.75</v>
@@ -32723,31 +32723,31 @@
         <v>1.1</v>
       </c>
       <c r="AC159" t="n">
-        <v>3.22</v>
+        <v>1.8</v>
       </c>
       <c r="AD159" t="n">
-        <v>3.65</v>
+        <v>3.21</v>
       </c>
       <c r="AE159" t="n">
-        <v>1.71</v>
+        <v>3.1</v>
       </c>
       <c r="AF159" t="n">
         <v>1.04</v>
       </c>
       <c r="AG159" t="n">
-        <v>12.25</v>
+        <v>13</v>
       </c>
       <c r="AH159" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AI159" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ159" t="n">
         <v>1.8</v>
       </c>
       <c r="AK159" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AL159" t="n">
         <v>1.8</v>
@@ -32756,34 +32756,34 @@
         <v>1.91</v>
       </c>
       <c r="AN159" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AO159" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AR159" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AU159" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="AV159" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AW159" t="n">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="AX159" t="n">
         <v>0</v>
@@ -32810,22 +32810,22 @@
         <v>0</v>
       </c>
       <c r="BF159" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG159" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH159" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BI159" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BJ159" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BK159" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160">
@@ -32833,7 +32833,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>2818159</v>
+        <v>2818158</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -32853,182 +32853,1603 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Žilina II</t>
+          <t>Petržalka akadémia</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Tatran Prešov</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
       </c>
       <c r="K160" t="n">
+        <v>3</v>
+      </c>
+      <c r="L160" t="n">
         <v>2</v>
       </c>
-      <c r="L160" t="n">
-        <v>3</v>
-      </c>
       <c r="M160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N160" t="n">
         <v>4</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>['6', '83', '90+2']</t>
+          <t>['19', '24']</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['11', '88']</t>
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R160" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
       </c>
       <c r="T160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2818160</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45002.54166666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>21</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Pohronie</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Petržalka akadémia</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>4</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['6', '65', '69', '89']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>10</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>11</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2818162</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45002.625</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Spartak Myjava</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>3</v>
+      </c>
+      <c r="R162" t="n">
+        <v>7</v>
+      </c>
+      <c r="S162" t="n">
+        <v>10</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2818164</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Slavoj Trebišov</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>5</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3</v>
+      </c>
+      <c r="M163" t="n">
+        <v>3</v>
+      </c>
+      <c r="N163" t="n">
+        <v>6</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['10', '17', '24']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['21', '32', '54']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>8</v>
+      </c>
+      <c r="R163" t="n">
+        <v>6</v>
+      </c>
+      <c r="S163" t="n">
+        <v>14</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2818165</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Tatran Prešov</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Žilina II</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>8</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2818167</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava II</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>5</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['33', '42', '84']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['35', '71']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1</v>
+      </c>
+      <c r="S165" t="n">
+        <v>3</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y165" t="n">
         <v>2.5</v>
       </c>
-      <c r="U160" t="n">
+      <c r="Z165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2818161</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Šamorín</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['8', '48', '50']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3</v>
+      </c>
+      <c r="R166" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" t="n">
+        <v>6</v>
+      </c>
+      <c r="T166" t="n">
         <v>2.4</v>
       </c>
-      <c r="V160" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W160" t="n">
+      <c r="U166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2818163</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Futura Humenné</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>11</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1</v>
+      </c>
+      <c r="S167" t="n">
+        <v>12</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V167" t="n">
+        <v>7</v>
+      </c>
+      <c r="W167" t="n">
         <v>1.33</v>
       </c>
-      <c r="X160" t="n">
+      <c r="X167" t="n">
         <v>3.25</v>
       </c>
-      <c r="Y160" t="n">
+      <c r="Y167" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z160" t="n">
+      <c r="Z167" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA160" t="n">
+      <c r="AA167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" t="n">
         <v>6</v>
       </c>
-      <c r="AB160" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC160" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD160" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AE160" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AF160" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG160" t="n">
+      <c r="BG167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ167" t="n">
         <v>17</v>
       </c>
-      <c r="AH160" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI160" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AJ160" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK160" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL160" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM160" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN160" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO160" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP160" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ160" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AR160" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AS160" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AT160" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AU160" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AV160" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AW160" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AX160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF160" t="n">
+      <c r="BK167" t="n">
         <v>9</v>
-      </c>
-      <c r="BG160" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH160" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI160" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ160" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK160" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,10 +586,10 @@
     <t>['6', '83', '90+2']</t>
   </si>
   <si>
-    <t>['20', '24', '84', '90+1']</t>
+    <t>['19', '24']</t>
   </si>
   <si>
-    <t>['19', '24']</t>
+    <t>['20', '24', '84', '90+1']</t>
   </si>
   <si>
     <t>['6', '65', '69', '89']</t>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['28', '38', '70', '72']</t>
   </si>
   <si>
     <t>['28']</t>
@@ -1224,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1471,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1850,7 +1853,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2805,7 +2808,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2895,7 +2898,7 @@
         <v>1.27</v>
       </c>
       <c r="AT9">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2996,7 +2999,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3086,7 +3089,7 @@
         <v>2.09</v>
       </c>
       <c r="AT10">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU10">
         <v>1.73</v>
@@ -3187,7 +3190,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3378,7 +3381,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>15</v>
@@ -4142,7 +4145,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4333,7 +4336,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>11</v>
@@ -4420,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>1.9</v>
@@ -4524,7 +4527,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4715,7 +4718,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4906,7 +4909,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5288,7 +5291,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5479,7 +5482,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5670,7 +5673,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5861,7 +5864,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6052,7 +6055,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6139,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6243,7 +6246,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6715,7 +6718,7 @@
         <v>0.9</v>
       </c>
       <c r="AT29">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU29">
         <v>1.61</v>
@@ -6816,7 +6819,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7580,7 +7583,7 @@
         <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7771,7 +7774,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -8726,7 +8729,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8917,7 +8920,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9108,7 +9111,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9299,7 +9302,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9386,7 +9389,7 @@
         <v>0.75</v>
       </c>
       <c r="AS43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT43">
         <v>1.9</v>
@@ -9872,7 +9875,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -10445,7 +10448,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10535,7 +10538,7 @@
         <v>1.8</v>
       </c>
       <c r="AT49">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU49">
         <v>2.09</v>
@@ -10636,7 +10639,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>12</v>
@@ -11018,7 +11021,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11591,7 +11594,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11782,7 +11785,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -12546,7 +12549,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -12633,7 +12636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>1.4</v>
@@ -12827,7 +12830,7 @@
         <v>1.6</v>
       </c>
       <c r="AT61">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU61">
         <v>1.91</v>
@@ -12928,7 +12931,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13119,7 +13122,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13310,7 +13313,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13501,7 +13504,7 @@
         <v>83</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13692,7 +13695,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13883,7 +13886,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14074,7 +14077,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14456,7 +14459,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14838,7 +14841,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15220,7 +15223,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15310,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU74">
         <v>1.99</v>
@@ -15411,7 +15414,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15602,7 +15605,7 @@
         <v>83</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15793,7 +15796,7 @@
         <v>83</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15984,7 +15987,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16175,7 +16178,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16366,7 +16369,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -16557,7 +16560,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>-1</v>
@@ -16644,7 +16647,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16748,7 +16751,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16939,7 +16942,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17130,7 +17133,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17512,7 +17515,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17703,7 +17706,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17894,7 +17897,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17984,7 +17987,7 @@
         <v>1.55</v>
       </c>
       <c r="AT88">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU88">
         <v>1.97</v>
@@ -18172,7 +18175,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT89">
         <v>0.55</v>
@@ -18467,7 +18470,7 @@
         <v>83</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18849,7 +18852,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19040,7 +19043,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19231,7 +19234,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19804,7 +19807,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -19995,7 +19998,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -20377,7 +20380,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20568,7 +20571,7 @@
         <v>83</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20950,7 +20953,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>-1</v>
@@ -21040,7 +21043,7 @@
         <v>1.73</v>
       </c>
       <c r="AT104">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU104">
         <v>1.66</v>
@@ -21141,7 +21144,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21523,7 +21526,7 @@
         <v>83</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21714,7 +21717,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -22096,7 +22099,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>14</v>
@@ -22287,7 +22290,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22565,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT112">
         <v>0.73</v>
@@ -22860,7 +22863,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23051,7 +23054,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>11</v>
@@ -23242,7 +23245,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>10</v>
@@ -23433,7 +23436,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>14</v>
@@ -24006,7 +24009,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>11</v>
@@ -24388,7 +24391,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -24475,7 +24478,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT122">
         <v>1.73</v>
@@ -24579,7 +24582,7 @@
         <v>95</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24770,7 +24773,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24961,7 +24964,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25152,7 +25155,7 @@
         <v>165</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>10</v>
@@ -25725,7 +25728,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -26107,7 +26110,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -27253,7 +27256,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27635,7 +27638,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>11</v>
@@ -28107,7 +28110,7 @@
         <v>2.36</v>
       </c>
       <c r="AT141">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU141">
         <v>2.16</v>
@@ -28208,7 +28211,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28295,7 +28298,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT142">
         <v>1.5</v>
@@ -28399,7 +28402,7 @@
         <v>83</v>
       </c>
       <c r="P143" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28781,7 +28784,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -28972,7 +28975,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29545,7 +29548,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29736,7 +29739,7 @@
         <v>83</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>1</v>
@@ -30309,7 +30312,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30691,7 +30694,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>10</v>
@@ -30882,7 +30885,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31073,7 +31076,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31264,7 +31267,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31351,7 +31354,7 @@
         <v>0.67</v>
       </c>
       <c r="AS158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT158">
         <v>0.6</v>
@@ -31413,7 +31416,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2818157</v>
+        <v>2818158</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -31428,25 +31431,25 @@
         <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H159" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I159">
         <v>2</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N159">
         <v>4</v>
@@ -31455,31 +31458,31 @@
         <v>190</v>
       </c>
       <c r="P159" t="s">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="Q159">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R159">
         <v>7</v>
       </c>
       <c r="S159">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T159">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U159">
         <v>2.2</v>
       </c>
       <c r="V159">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="W159">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y159">
         <v>2.75</v>
@@ -31494,31 +31497,31 @@
         <v>1.1</v>
       </c>
       <c r="AC159">
-        <v>1.8</v>
+        <v>3.22</v>
       </c>
       <c r="AD159">
-        <v>3.21</v>
+        <v>3.65</v>
       </c>
       <c r="AE159">
-        <v>3.1</v>
+        <v>1.71</v>
       </c>
       <c r="AF159">
         <v>1.04</v>
       </c>
       <c r="AG159">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="AH159">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AI159">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AJ159">
         <v>1.8</v>
       </c>
       <c r="AK159">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AL159">
         <v>1.8</v>
@@ -31527,34 +31530,34 @@
         <v>1.91</v>
       </c>
       <c r="AN159">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AO159">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AP159">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="AQ159">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="AR159">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AS159">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AT159">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AU159">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="AV159">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AW159">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="AX159">
         <v>0</v>
@@ -31581,22 +31584,22 @@
         <v>0</v>
       </c>
       <c r="BF159">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG159">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH159">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BI159">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BJ159">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BK159">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:63">
@@ -31604,7 +31607,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2818158</v>
+        <v>2818157</v>
       </c>
       <c r="C160" t="s">
         <v>63</v>
@@ -31619,25 +31622,25 @@
         <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H160" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I160">
         <v>2</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N160">
         <v>4</v>
@@ -31646,31 +31649,31 @@
         <v>191</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="Q160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R160">
         <v>7</v>
       </c>
       <c r="S160">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T160">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U160">
         <v>2.2</v>
       </c>
       <c r="V160">
+        <v>3.75</v>
+      </c>
+      <c r="W160">
+        <v>1.4</v>
+      </c>
+      <c r="X160">
         <v>2.75</v>
-      </c>
-      <c r="W160">
-        <v>1.36</v>
-      </c>
-      <c r="X160">
-        <v>3</v>
       </c>
       <c r="Y160">
         <v>2.75</v>
@@ -31685,31 +31688,31 @@
         <v>1.1</v>
       </c>
       <c r="AC160">
-        <v>3.22</v>
+        <v>1.8</v>
       </c>
       <c r="AD160">
-        <v>3.65</v>
+        <v>3.21</v>
       </c>
       <c r="AE160">
-        <v>1.71</v>
+        <v>3.1</v>
       </c>
       <c r="AF160">
         <v>1.04</v>
       </c>
       <c r="AG160">
-        <v>12.25</v>
+        <v>13</v>
       </c>
       <c r="AH160">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AI160">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ160">
         <v>1.8</v>
       </c>
       <c r="AK160">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AL160">
         <v>1.8</v>
@@ -31718,34 +31721,34 @@
         <v>1.91</v>
       </c>
       <c r="AN160">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AO160">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AP160">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AQ160">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AR160">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AT160">
-        <v>1.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU160">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="AV160">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AW160">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="AX160">
         <v>0</v>
@@ -31772,22 +31775,22 @@
         <v>0</v>
       </c>
       <c r="BF160">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG160">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH160">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BI160">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BJ160">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BK160">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:63">
@@ -32028,7 +32031,7 @@
         <v>83</v>
       </c>
       <c r="P162" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32219,7 +32222,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32601,7 +32604,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q165">
         <v>2</v>
@@ -32983,7 +32986,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>11</v>
@@ -33174,7 +33177,7 @@
         <v>198</v>
       </c>
       <c r="P168" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33316,6 +33319,197 @@
       </c>
       <c r="BK168">
         <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2818173</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45009.4375</v>
+      </c>
+      <c r="F169">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>77</v>
+      </c>
+      <c r="H169" t="s">
+        <v>78</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>199</v>
+      </c>
+      <c r="P169" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q169">
+        <v>2</v>
+      </c>
+      <c r="R169">
+        <v>5</v>
+      </c>
+      <c r="S169">
+        <v>7</v>
+      </c>
+      <c r="T169">
+        <v>2.2</v>
+      </c>
+      <c r="U169">
+        <v>2.5</v>
+      </c>
+      <c r="V169">
+        <v>4</v>
+      </c>
+      <c r="W169">
+        <v>1.29</v>
+      </c>
+      <c r="X169">
+        <v>3.24</v>
+      </c>
+      <c r="Y169">
+        <v>2.5</v>
+      </c>
+      <c r="Z169">
+        <v>1.5</v>
+      </c>
+      <c r="AA169">
+        <v>6</v>
+      </c>
+      <c r="AB169">
+        <v>1.11</v>
+      </c>
+      <c r="AC169">
+        <v>2.02</v>
+      </c>
+      <c r="AD169">
+        <v>3.22</v>
+      </c>
+      <c r="AE169">
+        <v>2.75</v>
+      </c>
+      <c r="AF169">
+        <v>1.03</v>
+      </c>
+      <c r="AG169">
+        <v>16.25</v>
+      </c>
+      <c r="AH169">
+        <v>1.2</v>
+      </c>
+      <c r="AI169">
+        <v>4.1</v>
+      </c>
+      <c r="AJ169">
+        <v>1.63</v>
+      </c>
+      <c r="AK169">
+        <v>2.15</v>
+      </c>
+      <c r="AL169">
+        <v>1.52</v>
+      </c>
+      <c r="AM169">
+        <v>2.46</v>
+      </c>
+      <c r="AN169">
+        <v>1.23</v>
+      </c>
+      <c r="AO169">
+        <v>1.24</v>
+      </c>
+      <c r="AP169">
+        <v>1.95</v>
+      </c>
+      <c r="AQ169">
+        <v>1.9</v>
+      </c>
+      <c r="AR169">
+        <v>1.2</v>
+      </c>
+      <c r="AS169">
+        <v>2</v>
+      </c>
+      <c r="AT169">
+        <v>1.09</v>
+      </c>
+      <c r="AU169">
+        <v>2.17</v>
+      </c>
+      <c r="AV169">
+        <v>1.54</v>
+      </c>
+      <c r="AW169">
+        <v>3.71</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>5</v>
+      </c>
+      <c r="BG169">
+        <v>5</v>
+      </c>
+      <c r="BH169">
+        <v>5</v>
+      </c>
+      <c r="BI169">
+        <v>3</v>
+      </c>
+      <c r="BJ169">
+        <v>10</v>
+      </c>
+      <c r="BK169">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,12 @@
     <t>['28', '38', '70', '72']</t>
   </si>
   <si>
+    <t>['13', '15', '38', '75', '82', '84']</t>
+  </si>
+  <si>
+    <t>['68', '72']</t>
+  </si>
+  <si>
     <t>['28']</t>
   </si>
   <si>
@@ -866,6 +872,18 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['26', '73']</t>
+  </si>
+  <si>
+    <t>['1', '20', '21', '36', '41', '50']</t>
+  </si>
+  <si>
+    <t>['84', '90+1']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1489,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1558,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1853,7 +1871,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1940,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT4">
         <v>1.18</v>
@@ -2134,7 +2152,7 @@
         <v>1.73</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2325,7 +2343,7 @@
         <v>2.09</v>
       </c>
       <c r="AT6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2704,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT8">
         <v>0.55</v>
@@ -2808,7 +2826,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2999,7 +3017,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3190,7 +3208,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3381,7 +3399,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>15</v>
@@ -3468,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT12">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3659,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT13">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU13">
         <v>1.9</v>
@@ -3850,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT14">
         <v>1.73</v>
@@ -4044,7 +4062,7 @@
         <v>2.36</v>
       </c>
       <c r="AT15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4145,7 +4163,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4232,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4336,7 +4354,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>11</v>
@@ -4527,7 +4545,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4617,7 +4635,7 @@
         <v>1.55</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4718,7 +4736,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4805,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT19">
         <v>0.73</v>
@@ -4909,7 +4927,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5291,7 +5309,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5482,7 +5500,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5569,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT23">
         <v>1.18</v>
@@ -5673,7 +5691,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5760,10 +5778,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU24">
         <v>1.97</v>
@@ -5864,7 +5882,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6055,7 +6073,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6145,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU26">
         <v>2.11</v>
@@ -6246,7 +6264,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6333,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT27">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU27">
         <v>1.61</v>
@@ -6524,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT28">
         <v>1.9</v>
@@ -6715,7 +6733,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT29">
         <v>1.09</v>
@@ -6819,7 +6837,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6906,10 +6924,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT30">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU30">
         <v>1.61</v>
@@ -7288,10 +7306,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>2.41</v>
@@ -7482,7 +7500,7 @@
         <v>1.8</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7583,7 +7601,7 @@
         <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7774,7 +7792,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>9</v>
@@ -8729,7 +8747,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8816,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
         <v>1.73</v>
@@ -8920,7 +8938,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9010,7 +9028,7 @@
         <v>1.27</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU41">
         <v>1.26</v>
@@ -9111,7 +9129,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9198,10 +9216,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT42">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU42">
         <v>1.48</v>
@@ -9302,7 +9320,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9392,7 +9410,7 @@
         <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>2.58</v>
@@ -9580,10 +9598,10 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU44">
         <v>1.96</v>
@@ -9771,10 +9789,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU45">
         <v>1.62</v>
@@ -9875,7 +9893,7 @@
         <v>88</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>9</v>
@@ -9962,10 +9980,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU46">
         <v>1.62</v>
@@ -10153,10 +10171,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT47">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU47">
         <v>1.74</v>
@@ -10344,7 +10362,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT48">
         <v>1.4</v>
@@ -10448,7 +10466,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10639,7 +10657,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>12</v>
@@ -11021,7 +11039,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11594,7 +11612,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11785,7 +11803,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -12254,7 +12272,7 @@
         <v>0.67</v>
       </c>
       <c r="AS58">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12448,7 +12466,7 @@
         <v>1.55</v>
       </c>
       <c r="AT59">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU59">
         <v>2.03</v>
@@ -12549,7 +12567,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -12827,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT61">
         <v>1.09</v>
@@ -12931,7 +12949,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13018,10 +13036,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT62">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU62">
         <v>1.96</v>
@@ -13122,7 +13140,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -13209,10 +13227,10 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT63">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU63">
         <v>1.62</v>
@@ -13313,7 +13331,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13403,7 +13421,7 @@
         <v>1.8</v>
       </c>
       <c r="AT64">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU64">
         <v>1.82</v>
@@ -13504,7 +13522,7 @@
         <v>83</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13591,10 +13609,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU65">
         <v>1.68</v>
@@ -13695,7 +13713,7 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -13886,7 +13904,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14077,7 +14095,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14355,7 +14373,7 @@
         <v>0.2</v>
       </c>
       <c r="AS69">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT69">
         <v>0.55</v>
@@ -14459,7 +14477,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14841,7 +14859,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -14931,7 +14949,7 @@
         <v>0.91</v>
       </c>
       <c r="AT72">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU72">
         <v>2.01</v>
@@ -15223,7 +15241,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15310,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT74">
         <v>1.09</v>
@@ -15414,7 +15432,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15504,7 +15522,7 @@
         <v>1.55</v>
       </c>
       <c r="AT75">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU75">
         <v>2.02</v>
@@ -15605,7 +15623,7 @@
         <v>83</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15692,10 +15710,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU76">
         <v>1.65</v>
@@ -15796,7 +15814,7 @@
         <v>83</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15883,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT77">
         <v>1.4</v>
@@ -15987,7 +16005,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16074,10 +16092,10 @@
         <v>1.6</v>
       </c>
       <c r="AS78">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT78">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU78">
         <v>2.05</v>
@@ -16178,7 +16196,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16369,7 +16387,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -16459,7 +16477,7 @@
         <v>0.91</v>
       </c>
       <c r="AT80">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU80">
         <v>1.93</v>
@@ -16560,7 +16578,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>-1</v>
@@ -16751,7 +16769,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16841,7 +16859,7 @@
         <v>1.73</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU82">
         <v>1.8</v>
@@ -16942,7 +16960,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17133,7 +17151,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>10</v>
@@ -17515,7 +17533,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17602,7 +17620,7 @@
         <v>1.2</v>
       </c>
       <c r="AS86">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT86">
         <v>1.18</v>
@@ -17706,7 +17724,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17793,7 +17811,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT87">
         <v>1.4</v>
@@ -17897,7 +17915,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18366,7 +18384,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18470,7 +18488,7 @@
         <v>83</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18557,10 +18575,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18751,7 +18769,7 @@
         <v>1.73</v>
       </c>
       <c r="AT92">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU92">
         <v>1.71</v>
@@ -18852,7 +18870,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18942,7 +18960,7 @@
         <v>0.91</v>
       </c>
       <c r="AT93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU93">
         <v>1.84</v>
@@ -19043,7 +19061,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19234,7 +19252,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19324,7 +19342,7 @@
         <v>1.55</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU95">
         <v>1.63</v>
@@ -19515,7 +19533,7 @@
         <v>2.09</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU96">
         <v>1.52</v>
@@ -19706,7 +19724,7 @@
         <v>2.45</v>
       </c>
       <c r="AT97">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU97">
         <v>2.29</v>
@@ -19807,7 +19825,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -19894,7 +19912,7 @@
         <v>1.6</v>
       </c>
       <c r="AS98">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT98">
         <v>1.73</v>
@@ -19998,7 +20016,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -20380,7 +20398,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20467,7 +20485,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT101">
         <v>0.73</v>
@@ -20571,7 +20589,7 @@
         <v>83</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20852,7 +20870,7 @@
         <v>2.45</v>
       </c>
       <c r="AT103">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU103">
         <v>2.1</v>
@@ -20953,7 +20971,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>-1</v>
@@ -21144,7 +21162,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21231,7 +21249,7 @@
         <v>1.17</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT105">
         <v>1.18</v>
@@ -21422,7 +21440,7 @@
         <v>0.29</v>
       </c>
       <c r="AS106">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT106">
         <v>0.55</v>
@@ -21526,7 +21544,7 @@
         <v>83</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21616,7 +21634,7 @@
         <v>1.55</v>
       </c>
       <c r="AT107">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU107">
         <v>1.94</v>
@@ -21717,7 +21735,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21804,7 +21822,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22099,7 +22117,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>14</v>
@@ -22186,7 +22204,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22290,7 +22308,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22762,7 +22780,7 @@
         <v>1.55</v>
       </c>
       <c r="AT113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU113">
         <v>1.6</v>
@@ -22863,7 +22881,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22953,7 +22971,7 @@
         <v>2.09</v>
       </c>
       <c r="AT114">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU114">
         <v>1.56</v>
@@ -23054,7 +23072,7 @@
         <v>158</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>11</v>
@@ -23141,7 +23159,7 @@
         <v>2.17</v>
       </c>
       <c r="AS115">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT115">
         <v>1.9</v>
@@ -23245,7 +23263,7 @@
         <v>159</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>10</v>
@@ -23332,10 +23350,10 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU116">
         <v>1.76</v>
@@ -23436,7 +23454,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>14</v>
@@ -23526,7 +23544,7 @@
         <v>2.36</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU117">
         <v>2.08</v>
@@ -24009,7 +24027,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>11</v>
@@ -24099,7 +24117,7 @@
         <v>2.45</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU120">
         <v>2</v>
@@ -24287,7 +24305,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -24391,7 +24409,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -24582,7 +24600,7 @@
         <v>95</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24773,7 +24791,7 @@
         <v>163</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24863,7 +24881,7 @@
         <v>1.55</v>
       </c>
       <c r="AT124">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU124">
         <v>1.57</v>
@@ -24964,7 +24982,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25051,7 +25069,7 @@
         <v>0.88</v>
       </c>
       <c r="AS125">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT125">
         <v>0.73</v>
@@ -25155,7 +25173,7 @@
         <v>165</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>10</v>
@@ -25242,10 +25260,10 @@
         <v>0.71</v>
       </c>
       <c r="AS126">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU126">
         <v>1.8</v>
@@ -25627,7 +25645,7 @@
         <v>2.36</v>
       </c>
       <c r="AT128">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU128">
         <v>2.21</v>
@@ -25728,7 +25746,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25815,10 +25833,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT129">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU129">
         <v>2.09</v>
@@ -26006,7 +26024,7 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT130">
         <v>1</v>
@@ -26110,7 +26128,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26391,7 +26409,7 @@
         <v>2.45</v>
       </c>
       <c r="AT132">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU132">
         <v>1.91</v>
@@ -26770,7 +26788,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT134">
         <v>1.18</v>
@@ -27155,7 +27173,7 @@
         <v>1.8</v>
       </c>
       <c r="AT136">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU136">
         <v>1.94</v>
@@ -27256,7 +27274,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27343,7 +27361,7 @@
         <v>1.63</v>
       </c>
       <c r="AS137">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT137">
         <v>1.18</v>
@@ -27638,7 +27656,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>11</v>
@@ -27725,7 +27743,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT139">
         <v>1.73</v>
@@ -27919,7 +27937,7 @@
         <v>2.09</v>
       </c>
       <c r="AT140">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU140">
         <v>1.58</v>
@@ -28211,7 +28229,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28301,7 +28319,7 @@
         <v>2</v>
       </c>
       <c r="AT142">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU142">
         <v>2.06</v>
@@ -28402,7 +28420,7 @@
         <v>83</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28492,7 +28510,7 @@
         <v>1.8</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU143">
         <v>1.87</v>
@@ -28680,10 +28698,10 @@
         <v>0.63</v>
       </c>
       <c r="AS144">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT144">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU144">
         <v>2.14</v>
@@ -28784,7 +28802,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -28871,7 +28889,7 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
         <v>1.9</v>
@@ -28975,7 +28993,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29548,7 +29566,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29739,7 +29757,7 @@
         <v>83</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>1</v>
@@ -30017,7 +30035,7 @@
         <v>0.78</v>
       </c>
       <c r="AS151">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT151">
         <v>0.73</v>
@@ -30211,7 +30229,7 @@
         <v>2.09</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU152">
         <v>1.74</v>
@@ -30312,7 +30330,7 @@
         <v>185</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30590,10 +30608,10 @@
         <v>1</v>
       </c>
       <c r="AS154">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT154">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU154">
         <v>2.05</v>
@@ -30694,7 +30712,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>10</v>
@@ -30781,7 +30799,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT155">
         <v>1.4</v>
@@ -30885,7 +30903,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -30972,10 +30990,10 @@
         <v>1.56</v>
       </c>
       <c r="AS156">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT156">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU156">
         <v>1.39</v>
@@ -31076,7 +31094,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31166,7 +31184,7 @@
         <v>2.36</v>
       </c>
       <c r="AT157">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU157">
         <v>2.18</v>
@@ -31267,7 +31285,7 @@
         <v>189</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31357,7 +31375,7 @@
         <v>2</v>
       </c>
       <c r="AT158">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU158">
         <v>2.14</v>
@@ -31458,7 +31476,7 @@
         <v>190</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31548,7 +31566,7 @@
         <v>1.8</v>
       </c>
       <c r="AT159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU159">
         <v>1.84</v>
@@ -31736,7 +31754,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT160">
         <v>1.09</v>
@@ -32031,7 +32049,7 @@
         <v>83</v>
       </c>
       <c r="P162" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32222,7 +32240,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32604,7 +32622,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q165">
         <v>2</v>
@@ -32986,7 +33004,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>11</v>
@@ -33177,7 +33195,7 @@
         <v>198</v>
       </c>
       <c r="P168" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33510,6 +33528,1152 @@
       </c>
       <c r="BK169">
         <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2818171</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45010.4375</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" t="s">
+        <v>80</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>83</v>
+      </c>
+      <c r="P170" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q170">
+        <v>2</v>
+      </c>
+      <c r="R170">
+        <v>7</v>
+      </c>
+      <c r="S170">
+        <v>9</v>
+      </c>
+      <c r="T170">
+        <v>4.75</v>
+      </c>
+      <c r="U170">
+        <v>2.2</v>
+      </c>
+      <c r="V170">
+        <v>2.3</v>
+      </c>
+      <c r="W170">
+        <v>1.38</v>
+      </c>
+      <c r="X170">
+        <v>2.8</v>
+      </c>
+      <c r="Y170">
+        <v>2.7</v>
+      </c>
+      <c r="Z170">
+        <v>1.41</v>
+      </c>
+      <c r="AA170">
+        <v>6.4</v>
+      </c>
+      <c r="AB170">
+        <v>1.08</v>
+      </c>
+      <c r="AC170">
+        <v>3.55</v>
+      </c>
+      <c r="AD170">
+        <v>3.45</v>
+      </c>
+      <c r="AE170">
+        <v>1.9</v>
+      </c>
+      <c r="AF170">
+        <v>1.05</v>
+      </c>
+      <c r="AG170">
+        <v>11.5</v>
+      </c>
+      <c r="AH170">
+        <v>1.29</v>
+      </c>
+      <c r="AI170">
+        <v>3.25</v>
+      </c>
+      <c r="AJ170">
+        <v>1.98</v>
+      </c>
+      <c r="AK170">
+        <v>1.84</v>
+      </c>
+      <c r="AL170">
+        <v>1.94</v>
+      </c>
+      <c r="AM170">
+        <v>1.82</v>
+      </c>
+      <c r="AN170">
+        <v>1.82</v>
+      </c>
+      <c r="AO170">
+        <v>1.27</v>
+      </c>
+      <c r="AP170">
+        <v>1.25</v>
+      </c>
+      <c r="AQ170">
+        <v>1.6</v>
+      </c>
+      <c r="AR170">
+        <v>1.9</v>
+      </c>
+      <c r="AS170">
+        <v>1.45</v>
+      </c>
+      <c r="AT170">
+        <v>2</v>
+      </c>
+      <c r="AU170">
+        <v>1.96</v>
+      </c>
+      <c r="AV170">
+        <v>1.6</v>
+      </c>
+      <c r="AW170">
+        <v>3.56</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>9</v>
+      </c>
+      <c r="BH170">
+        <v>5</v>
+      </c>
+      <c r="BI170">
+        <v>12</v>
+      </c>
+      <c r="BJ170">
+        <v>5</v>
+      </c>
+      <c r="BK170">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2818170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45010.4375</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" t="s">
+        <v>72</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>83</v>
+      </c>
+      <c r="P171" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q171">
+        <v>11</v>
+      </c>
+      <c r="R171">
+        <v>4</v>
+      </c>
+      <c r="S171">
+        <v>15</v>
+      </c>
+      <c r="T171">
+        <v>1.95</v>
+      </c>
+      <c r="U171">
+        <v>2.4</v>
+      </c>
+      <c r="V171">
+        <v>5.5</v>
+      </c>
+      <c r="W171">
+        <v>1.3</v>
+      </c>
+      <c r="X171">
+        <v>3.2</v>
+      </c>
+      <c r="Y171">
+        <v>2.5</v>
+      </c>
+      <c r="Z171">
+        <v>1.5</v>
+      </c>
+      <c r="AA171">
+        <v>6</v>
+      </c>
+      <c r="AB171">
+        <v>1.11</v>
+      </c>
+      <c r="AC171">
+        <v>1.45</v>
+      </c>
+      <c r="AD171">
+        <v>4.2</v>
+      </c>
+      <c r="AE171">
+        <v>5.75</v>
+      </c>
+      <c r="AF171">
+        <v>1.03</v>
+      </c>
+      <c r="AG171">
+        <v>16.25</v>
+      </c>
+      <c r="AH171">
+        <v>1.21</v>
+      </c>
+      <c r="AI171">
+        <v>3.97</v>
+      </c>
+      <c r="AJ171">
+        <v>1.66</v>
+      </c>
+      <c r="AK171">
+        <v>2.1</v>
+      </c>
+      <c r="AL171">
+        <v>1.68</v>
+      </c>
+      <c r="AM171">
+        <v>2.13</v>
+      </c>
+      <c r="AN171">
+        <v>1.18</v>
+      </c>
+      <c r="AO171">
+        <v>1.2</v>
+      </c>
+      <c r="AP171">
+        <v>2.25</v>
+      </c>
+      <c r="AQ171">
+        <v>0.9</v>
+      </c>
+      <c r="AR171">
+        <v>0.6</v>
+      </c>
+      <c r="AS171">
+        <v>0.91</v>
+      </c>
+      <c r="AT171">
+        <v>0.64</v>
+      </c>
+      <c r="AU171">
+        <v>1.82</v>
+      </c>
+      <c r="AV171">
+        <v>1.38</v>
+      </c>
+      <c r="AW171">
+        <v>3.2</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>15</v>
+      </c>
+      <c r="BG171">
+        <v>4</v>
+      </c>
+      <c r="BH171">
+        <v>9</v>
+      </c>
+      <c r="BI171">
+        <v>8</v>
+      </c>
+      <c r="BJ171">
+        <v>24</v>
+      </c>
+      <c r="BK171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2818168</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45010.4375</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>67</v>
+      </c>
+      <c r="H172" t="s">
+        <v>68</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>5</v>
+      </c>
+      <c r="K172">
+        <v>5</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>6</v>
+      </c>
+      <c r="N172">
+        <v>6</v>
+      </c>
+      <c r="O172" t="s">
+        <v>83</v>
+      </c>
+      <c r="P172" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q172">
+        <v>12</v>
+      </c>
+      <c r="R172">
+        <v>10</v>
+      </c>
+      <c r="S172">
+        <v>22</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
+        <v>2.2</v>
+      </c>
+      <c r="V172">
+        <v>3.4</v>
+      </c>
+      <c r="W172">
+        <v>1.29</v>
+      </c>
+      <c r="X172">
+        <v>3.24</v>
+      </c>
+      <c r="Y172">
+        <v>2.38</v>
+      </c>
+      <c r="Z172">
+        <v>1.53</v>
+      </c>
+      <c r="AA172">
+        <v>5.5</v>
+      </c>
+      <c r="AB172">
+        <v>1.12</v>
+      </c>
+      <c r="AC172">
+        <v>2.04</v>
+      </c>
+      <c r="AD172">
+        <v>5.16</v>
+      </c>
+      <c r="AE172">
+        <v>2.36</v>
+      </c>
+      <c r="AF172">
+        <v>1.02</v>
+      </c>
+      <c r="AG172">
+        <v>13.5</v>
+      </c>
+      <c r="AH172">
+        <v>1.23</v>
+      </c>
+      <c r="AI172">
+        <v>3.77</v>
+      </c>
+      <c r="AJ172">
+        <v>1.78</v>
+      </c>
+      <c r="AK172">
+        <v>2.03</v>
+      </c>
+      <c r="AL172">
+        <v>1.5</v>
+      </c>
+      <c r="AM172">
+        <v>2.51</v>
+      </c>
+      <c r="AN172">
+        <v>1.42</v>
+      </c>
+      <c r="AO172">
+        <v>1.3</v>
+      </c>
+      <c r="AP172">
+        <v>1.5</v>
+      </c>
+      <c r="AQ172">
+        <v>1.2</v>
+      </c>
+      <c r="AR172">
+        <v>0.6</v>
+      </c>
+      <c r="AS172">
+        <v>1.09</v>
+      </c>
+      <c r="AT172">
+        <v>0.82</v>
+      </c>
+      <c r="AU172">
+        <v>1.42</v>
+      </c>
+      <c r="AV172">
+        <v>1.35</v>
+      </c>
+      <c r="AW172">
+        <v>2.77</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>0</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>0</v>
+      </c>
+      <c r="BG172">
+        <v>11</v>
+      </c>
+      <c r="BH172">
+        <v>7</v>
+      </c>
+      <c r="BI172">
+        <v>8</v>
+      </c>
+      <c r="BJ172">
+        <v>7</v>
+      </c>
+      <c r="BK172">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2818169</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45010.4375</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>65</v>
+      </c>
+      <c r="H173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>6</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>6</v>
+      </c>
+      <c r="O173" t="s">
+        <v>200</v>
+      </c>
+      <c r="P173" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q173">
+        <v>8</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173">
+        <v>11</v>
+      </c>
+      <c r="T173">
+        <v>1.95</v>
+      </c>
+      <c r="U173">
+        <v>2.4</v>
+      </c>
+      <c r="V173">
+        <v>5</v>
+      </c>
+      <c r="W173">
+        <v>1.3</v>
+      </c>
+      <c r="X173">
+        <v>3.2</v>
+      </c>
+      <c r="Y173">
+        <v>2.35</v>
+      </c>
+      <c r="Z173">
+        <v>1.52</v>
+      </c>
+      <c r="AA173">
+        <v>5.2</v>
+      </c>
+      <c r="AB173">
+        <v>1.13</v>
+      </c>
+      <c r="AC173">
+        <v>1.5</v>
+      </c>
+      <c r="AD173">
+        <v>4</v>
+      </c>
+      <c r="AE173">
+        <v>7</v>
+      </c>
+      <c r="AF173">
+        <v>1.03</v>
+      </c>
+      <c r="AG173">
+        <v>15.25</v>
+      </c>
+      <c r="AH173">
+        <v>1.21</v>
+      </c>
+      <c r="AI173">
+        <v>3.98</v>
+      </c>
+      <c r="AJ173">
+        <v>1.62</v>
+      </c>
+      <c r="AK173">
+        <v>2.25</v>
+      </c>
+      <c r="AL173">
+        <v>1.71</v>
+      </c>
+      <c r="AM173">
+        <v>2.08</v>
+      </c>
+      <c r="AN173">
+        <v>1.18</v>
+      </c>
+      <c r="AO173">
+        <v>1.23</v>
+      </c>
+      <c r="AP173">
+        <v>2.15</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>1</v>
+      </c>
+      <c r="AS173">
+        <v>1.2</v>
+      </c>
+      <c r="AT173">
+        <v>0.91</v>
+      </c>
+      <c r="AU173">
+        <v>1.72</v>
+      </c>
+      <c r="AV173">
+        <v>1.47</v>
+      </c>
+      <c r="AW173">
+        <v>3.19</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>9</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>2</v>
+      </c>
+      <c r="BI173">
+        <v>3</v>
+      </c>
+      <c r="BJ173">
+        <v>11</v>
+      </c>
+      <c r="BK173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2818175</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45011.22916666666</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>71</v>
+      </c>
+      <c r="H174" t="s">
+        <v>66</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>201</v>
+      </c>
+      <c r="P174" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q174">
+        <v>-1</v>
+      </c>
+      <c r="R174">
+        <v>-1</v>
+      </c>
+      <c r="S174">
+        <v>-1</v>
+      </c>
+      <c r="T174">
+        <v>2.3</v>
+      </c>
+      <c r="U174">
+        <v>2.3</v>
+      </c>
+      <c r="V174">
+        <v>4</v>
+      </c>
+      <c r="W174">
+        <v>1.24</v>
+      </c>
+      <c r="X174">
+        <v>3.6</v>
+      </c>
+      <c r="Y174">
+        <v>2.14</v>
+      </c>
+      <c r="Z174">
+        <v>1.63</v>
+      </c>
+      <c r="AA174">
+        <v>4.4</v>
+      </c>
+      <c r="AB174">
+        <v>1.17</v>
+      </c>
+      <c r="AC174">
+        <v>1.91</v>
+      </c>
+      <c r="AD174">
+        <v>3.84</v>
+      </c>
+      <c r="AE174">
+        <v>3.48</v>
+      </c>
+      <c r="AF174">
+        <v>1.02</v>
+      </c>
+      <c r="AG174">
+        <v>18.5</v>
+      </c>
+      <c r="AH174">
+        <v>1.15</v>
+      </c>
+      <c r="AI174">
+        <v>4.72</v>
+      </c>
+      <c r="AJ174">
+        <v>1.66</v>
+      </c>
+      <c r="AK174">
+        <v>2.1</v>
+      </c>
+      <c r="AL174">
+        <v>1.47</v>
+      </c>
+      <c r="AM174">
+        <v>2.6</v>
+      </c>
+      <c r="AN174">
+        <v>1.32</v>
+      </c>
+      <c r="AO174">
+        <v>1.25</v>
+      </c>
+      <c r="AP174">
+        <v>1.72</v>
+      </c>
+      <c r="AQ174">
+        <v>1.3</v>
+      </c>
+      <c r="AR174">
+        <v>1.5</v>
+      </c>
+      <c r="AS174">
+        <v>1.27</v>
+      </c>
+      <c r="AT174">
+        <v>1.45</v>
+      </c>
+      <c r="AU174">
+        <v>1.47</v>
+      </c>
+      <c r="AV174">
+        <v>1.47</v>
+      </c>
+      <c r="AW174">
+        <v>2.94</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="AZ174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>-1</v>
+      </c>
+      <c r="BG174">
+        <v>-1</v>
+      </c>
+      <c r="BH174">
+        <v>-1</v>
+      </c>
+      <c r="BI174">
+        <v>-1</v>
+      </c>
+      <c r="BJ174">
+        <v>-1</v>
+      </c>
+      <c r="BK174">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2818174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45011.33333333334</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>76</v>
+      </c>
+      <c r="H175" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>83</v>
+      </c>
+      <c r="P175" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="R175">
+        <v>3</v>
+      </c>
+      <c r="S175">
+        <v>4</v>
+      </c>
+      <c r="T175">
+        <v>4</v>
+      </c>
+      <c r="U175">
+        <v>2.25</v>
+      </c>
+      <c r="V175">
+        <v>2.4</v>
+      </c>
+      <c r="W175">
+        <v>1.3</v>
+      </c>
+      <c r="X175">
+        <v>3.2</v>
+      </c>
+      <c r="Y175">
+        <v>2.62</v>
+      </c>
+      <c r="Z175">
+        <v>1.44</v>
+      </c>
+      <c r="AA175">
+        <v>6</v>
+      </c>
+      <c r="AB175">
+        <v>1.11</v>
+      </c>
+      <c r="AC175">
+        <v>4.2</v>
+      </c>
+      <c r="AD175">
+        <v>3.75</v>
+      </c>
+      <c r="AE175">
+        <v>1.83</v>
+      </c>
+      <c r="AF175">
+        <v>1.03</v>
+      </c>
+      <c r="AG175">
+        <v>15</v>
+      </c>
+      <c r="AH175">
+        <v>1.21</v>
+      </c>
+      <c r="AI175">
+        <v>3.93</v>
+      </c>
+      <c r="AJ175">
+        <v>1.8</v>
+      </c>
+      <c r="AK175">
+        <v>2</v>
+      </c>
+      <c r="AL175">
+        <v>1.65</v>
+      </c>
+      <c r="AM175">
+        <v>2.18</v>
+      </c>
+      <c r="AN175">
+        <v>2.05</v>
+      </c>
+      <c r="AO175">
+        <v>1.24</v>
+      </c>
+      <c r="AP175">
+        <v>1.22</v>
+      </c>
+      <c r="AQ175">
+        <v>1.7</v>
+      </c>
+      <c r="AR175">
+        <v>1.5</v>
+      </c>
+      <c r="AS175">
+        <v>1.55</v>
+      </c>
+      <c r="AT175">
+        <v>1.64</v>
+      </c>
+      <c r="AU175">
+        <v>2.05</v>
+      </c>
+      <c r="AV175">
+        <v>1.7</v>
+      </c>
+      <c r="AW175">
+        <v>3.75</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>4</v>
+      </c>
+      <c r="BG175">
+        <v>3</v>
+      </c>
+      <c r="BH175">
+        <v>9</v>
+      </c>
+      <c r="BI175">
+        <v>8</v>
+      </c>
+      <c r="BJ175">
+        <v>13</v>
+      </c>
+      <c r="BK175">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.55</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.09</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT5" t="n">
         <v>1.64</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT9" t="n">
         <v>1.09</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT10" t="n">
         <v>1.09</v>
@@ -2730,7 +2730,7 @@
         <v>1.55</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
         <v>1.77</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT12" t="n">
         <v>0.82</v>
@@ -3339,7 +3339,7 @@
         <v>1.45</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>1.64</v>
@@ -4354,7 +4354,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>1.86</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4760,7 +4760,7 @@
         <v>1.55</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU21" t="n">
         <v>1.86</v>
@@ -4960,10 +4960,10 @@
         <v>0.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.34</v>
@@ -5166,7 +5166,7 @@
         <v>1.27</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU23" t="n">
         <v>1.47</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT25" t="n">
         <v>1.4</v>
@@ -6181,7 +6181,7 @@
         <v>1.09</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.75</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT29" t="n">
         <v>1.09</v>
@@ -6587,7 +6587,7 @@
         <v>1.45</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.61</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT31" t="n">
         <v>1.4</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU35" t="n">
         <v>1.8</v>
@@ -7805,7 +7805,7 @@
         <v>1.55</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>2.07</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU39" t="n">
         <v>1.77</v>
@@ -8617,7 +8617,7 @@
         <v>1.27</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU40" t="n">
         <v>1.44</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT41" t="n">
         <v>1.64</v>
@@ -9429,7 +9429,7 @@
         <v>1.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU44" t="n">
         <v>1.96</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT45" t="n">
         <v>1.64</v>
@@ -10647,7 +10647,7 @@
         <v>1.55</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU50" t="n">
         <v>2</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU51" t="n">
         <v>1.8</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU52" t="n">
         <v>1.52</v>
@@ -11253,10 +11253,10 @@
         <v>0.25</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.5</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU54" t="n">
         <v>2.09</v>
@@ -11659,10 +11659,10 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU55" t="n">
         <v>1.59</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU56" t="n">
         <v>1.83</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.68</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.74</v>
@@ -14298,10 +14298,10 @@
         <v>2.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU68" t="n">
         <v>2.24</v>
@@ -14501,10 +14501,10 @@
         <v>0.2</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.57</v>
@@ -14704,10 +14704,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU70" t="n">
         <v>1.48</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU71" t="n">
         <v>1.84</v>
@@ -15110,10 +15110,10 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>2.01</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU73" t="n">
         <v>1.1</v>
@@ -16534,7 +16534,7 @@
         <v>1.8</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU79" t="n">
         <v>1.88</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT80" t="n">
         <v>0.64</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT82" t="n">
         <v>0.91</v>
@@ -17343,10 +17343,10 @@
         <v>2.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.64</v>
@@ -17546,10 +17546,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU84" t="n">
         <v>1.55</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU85" t="n">
         <v>2</v>
@@ -17952,10 +17952,10 @@
         <v>1.2</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU86" t="n">
         <v>1.69</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU89" t="n">
         <v>2.15</v>
@@ -19170,7 +19170,7 @@
         <v>1.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT92" t="n">
         <v>0.64</v>
@@ -19373,7 +19373,7 @@
         <v>1.71</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT93" t="n">
         <v>2</v>
@@ -19576,10 +19576,10 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.15</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
         <v>0.91</v>
@@ -19982,10 +19982,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU96" t="n">
         <v>1.52</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT97" t="n">
         <v>0.82</v>
@@ -20388,10 +20388,10 @@
         <v>1.6</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU98" t="n">
         <v>1.73</v>
@@ -20591,10 +20591,10 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU99" t="n">
         <v>2.02</v>
@@ -20797,7 +20797,7 @@
         <v>1.8</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU100" t="n">
         <v>2.06</v>
@@ -21000,7 +21000,7 @@
         <v>1.55</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU101" t="n">
         <v>1.93</v>
@@ -21200,10 +21200,10 @@
         <v>0.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102" t="n">
         <v>1.22</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT103" t="n">
         <v>0.64</v>
@@ -21606,7 +21606,7 @@
         <v>1.57</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT104" t="n">
         <v>1.09</v>
@@ -21812,7 +21812,7 @@
         <v>1.2</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU105" t="n">
         <v>1.66</v>
@@ -22015,7 +22015,7 @@
         <v>1.09</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.39</v>
@@ -22621,7 +22621,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT109" t="n">
         <v>1.4</v>
@@ -22827,7 +22827,7 @@
         <v>1.45</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU110" t="n">
         <v>1.9</v>
@@ -23027,10 +23027,10 @@
         <v>0.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.25</v>
@@ -23233,7 +23233,7 @@
         <v>2</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23433,7 +23433,7 @@
         <v>1.88</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT113" t="n">
         <v>2</v>
@@ -23636,7 +23636,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT114" t="n">
         <v>0.82</v>
@@ -23842,7 +23842,7 @@
         <v>1.55</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU115" t="n">
         <v>2.08</v>
@@ -24042,10 +24042,10 @@
         <v>1</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU116" t="n">
         <v>1.76</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT117" t="n">
         <v>0.91</v>
@@ -24451,7 +24451,7 @@
         <v>1.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU118" t="n">
         <v>2.01</v>
@@ -24651,10 +24651,10 @@
         <v>1.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU119" t="n">
         <v>1.33</v>
@@ -24854,10 +24854,10 @@
         <v>1.4</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU120" t="n">
         <v>2</v>
@@ -25060,7 +25060,7 @@
         <v>1.55</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU121" t="n">
         <v>2.14</v>
@@ -25263,7 +25263,7 @@
         <v>2</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU122" t="n">
         <v>2.16</v>
@@ -25463,7 +25463,7 @@
         <v>1.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT123" t="n">
         <v>1.4</v>
@@ -25666,7 +25666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
         <v>0.64</v>
@@ -25872,7 +25872,7 @@
         <v>1.45</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU125" t="n">
         <v>1.98</v>
@@ -26072,7 +26072,7 @@
         <v>0.71</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT126" t="n">
         <v>0.91</v>
@@ -26278,7 +26278,7 @@
         <v>1.8</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU127" t="n">
         <v>1.99</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT128" t="n">
         <v>0.82</v>
@@ -26684,7 +26684,7 @@
         <v>1.55</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>2.09</v>
@@ -26887,7 +26887,7 @@
         <v>1.27</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU130" t="n">
         <v>1.39</v>
@@ -27087,7 +27087,7 @@
         <v>1.38</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT131" t="n">
         <v>1.4</v>
@@ -27290,7 +27290,7 @@
         <v>1.75</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT132" t="n">
         <v>1.64</v>
@@ -27493,7 +27493,7 @@
         <v>1.29</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27699,7 +27699,7 @@
         <v>1.2</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU134" t="n">
         <v>1.75</v>
@@ -27899,10 +27899,10 @@
         <v>1.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU135" t="n">
         <v>1.72</v>
@@ -28105,7 +28105,7 @@
         <v>1.8</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU136" t="n">
         <v>1.94</v>
@@ -28308,7 +28308,7 @@
         <v>1.45</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU137" t="n">
         <v>2.03</v>
@@ -28508,7 +28508,7 @@
         <v>1.13</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -28714,7 +28714,7 @@
         <v>1.09</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU139" t="n">
         <v>1.34</v>
@@ -28914,7 +28914,7 @@
         <v>0.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT140" t="n">
         <v>0.64</v>
@@ -29117,7 +29117,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT141" t="n">
         <v>1.09</v>
@@ -29323,7 +29323,7 @@
         <v>2</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU142" t="n">
         <v>2.06</v>
@@ -29932,7 +29932,7 @@
         <v>1.45</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU145" t="n">
         <v>2.02</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -30338,7 +30338,7 @@
         <v>1.55</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU147" t="n">
         <v>1.89</v>
@@ -30538,10 +30538,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU148" t="n">
         <v>1.63</v>
@@ -30741,10 +30741,10 @@
         <v>1.44</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU149" t="n">
         <v>1.86</v>
@@ -30944,10 +30944,10 @@
         <v>0.89</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU150" t="n">
         <v>1.69</v>
@@ -31150,7 +31150,7 @@
         <v>1.27</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.44</v>
@@ -31350,7 +31350,7 @@
         <v>1.56</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT152" t="n">
         <v>1.64</v>
@@ -31553,10 +31553,10 @@
         <v>1.67</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU153" t="n">
         <v>1.38</v>
@@ -31959,7 +31959,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT155" t="n">
         <v>1.4</v>
@@ -32165,7 +32165,7 @@
         <v>1.09</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -32365,7 +32365,7 @@
         <v>0.67</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT157" t="n">
         <v>0.64</v>
@@ -33177,10 +33177,10 @@
         <v>0.6</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU161" t="n">
         <v>1.64</v>
@@ -33383,7 +33383,7 @@
         <v>1.55</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU162" t="n">
         <v>1.87</v>
@@ -33583,10 +33583,10 @@
         <v>1.2</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU163" t="n">
         <v>1.61</v>
@@ -33786,10 +33786,10 @@
         <v>1.1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU164" t="n">
         <v>1.9</v>
@@ -33989,10 +33989,10 @@
         <v>2.11</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU165" t="n">
         <v>1.37</v>
@@ -34192,10 +34192,10 @@
         <v>1.3</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU166" t="n">
         <v>1.66</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT167" t="n">
         <v>1</v>
@@ -34598,10 +34598,10 @@
         <v>0.7</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU168" t="n">
         <v>1.65</v>
@@ -35207,7 +35207,7 @@
         <v>0.6</v>
       </c>
       <c r="AS171" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT171" t="n">
         <v>0.64</v>
@@ -35819,7 +35819,7 @@
         <v>1.27</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU174" t="n">
         <v>1.47</v>
@@ -36073,6 +36073,1630 @@
         <v>13</v>
       </c>
       <c r="BK175" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2818179</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45016.45833333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>23</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Spartak Myjava</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['18', '55', '85']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>5</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2</v>
+      </c>
+      <c r="S176" t="n">
+        <v>7</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2818176</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45016.54166666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>23</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Pohronie</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Slavoj Trebišov</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['58', '79', '80']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>8</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>10</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V177" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2818182</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>3</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>4</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['31', '68', '90']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>10</v>
+      </c>
+      <c r="R178" t="n">
+        <v>9</v>
+      </c>
+      <c r="S178" t="n">
+        <v>19</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2818180</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Futura Humenné</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Šamorín</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>5</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['21', '24', '61']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['90+4', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>4</v>
+      </c>
+      <c r="R179" t="n">
+        <v>8</v>
+      </c>
+      <c r="S179" t="n">
+        <v>12</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2818181</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Tatran Prešov</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Dubnica</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['9', '45', '49']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>10</v>
+      </c>
+      <c r="R180" t="n">
+        <v>1</v>
+      </c>
+      <c r="S180" t="n">
+        <v>11</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2818178</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Žilina II</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>12</v>
+      </c>
+      <c r="R181" t="n">
+        <v>5</v>
+      </c>
+      <c r="S181" t="n">
+        <v>17</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2818177</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Petržalka akadémia</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>5</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>5</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['17', '39', '59', '74', '82']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>7</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>9</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V182" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2818183</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45018.22916666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Rača</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava II</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['38', '45']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>2</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>4</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK183" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.42</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.17</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU10" t="n">
         <v>1.73</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT17" t="n">
         <v>2</v>
@@ -5572,7 +5572,7 @@
         <v>1.42</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU25" t="n">
         <v>1.38</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT26" t="n">
         <v>0.91</v>
@@ -6384,7 +6384,7 @@
         <v>1.08</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU29" t="n">
         <v>1.61</v>
@@ -6790,7 +6790,7 @@
         <v>2.42</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU31" t="n">
         <v>1.64</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT33" t="n">
         <v>0.82</v>
@@ -9223,7 +9223,7 @@
         <v>0.75</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT43" t="n">
         <v>2</v>
@@ -10241,7 +10241,7 @@
         <v>1.55</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU48" t="n">
         <v>2.04</v>
@@ -10441,10 +10441,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU49" t="n">
         <v>2.09</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU60" t="n">
         <v>2.31</v>
@@ -12880,7 +12880,7 @@
         <v>1.45</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU61" t="n">
         <v>1.91</v>
@@ -13486,7 +13486,7 @@
         <v>1.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT64" t="n">
         <v>1.64</v>
@@ -15519,7 +15519,7 @@
         <v>1.2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -16128,7 +16128,7 @@
         <v>1.09</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU77" t="n">
         <v>1.49</v>
@@ -16531,7 +16531,7 @@
         <v>0.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT79" t="n">
         <v>1.08</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>1.27</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -18361,7 +18361,7 @@
         <v>1.55</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU88" t="n">
         <v>1.97</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT89" t="n">
         <v>0.5</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT100" t="n">
         <v>1.08</v>
@@ -21609,7 +21609,7 @@
         <v>1.83</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU104" t="n">
         <v>1.66</v>
@@ -22624,7 +22624,7 @@
         <v>0.83</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU109" t="n">
         <v>1.73</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT112" t="n">
         <v>0.67</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT118" t="n">
         <v>1.58</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT122" t="n">
         <v>1.58</v>
@@ -25466,7 +25466,7 @@
         <v>2.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU123" t="n">
         <v>2.05</v>
@@ -26275,7 +26275,7 @@
         <v>2.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT127" t="n">
         <v>2</v>
@@ -27090,7 +27090,7 @@
         <v>1.67</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU131" t="n">
         <v>1.81</v>
@@ -28102,7 +28102,7 @@
         <v>1.86</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT136" t="n">
         <v>1.33</v>
@@ -29120,7 +29120,7 @@
         <v>2.42</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU141" t="n">
         <v>2.16</v>
@@ -29320,7 +29320,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT142" t="n">
         <v>1.33</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT143" t="n">
         <v>0.91</v>
@@ -31962,7 +31962,7 @@
         <v>1.08</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU155" t="n">
         <v>1.83</v>
@@ -32568,7 +32568,7 @@
         <v>0.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT158" t="n">
         <v>0.82</v>
@@ -32771,7 +32771,7 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT159" t="n">
         <v>2</v>
@@ -32977,7 +32977,7 @@
         <v>1.55</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU160" t="n">
         <v>2.02</v>
@@ -34689,31 +34689,31 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>['28', '38', '70', '72']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['-1', '-1', '-1']</t>
         </is>
       </c>
       <c r="Q169" t="n">
@@ -34801,10 +34801,10 @@
         <v>1.2</v>
       </c>
       <c r="AS169" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AU169" t="n">
         <v>2.17</v>
@@ -37698,6 +37698,209 @@
       </c>
       <c r="BK183" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2818172</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45021.47916666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>22</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Petržalka akadémia</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>6</v>
+      </c>
+      <c r="R184" t="n">
+        <v>8</v>
+      </c>
+      <c r="S184" t="n">
+        <v>14</v>
+      </c>
+      <c r="T184" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT2" t="n">
         <v>0.92</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT3" t="n">
         <v>1.08</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT4" t="n">
         <v>1.08</v>
@@ -1512,7 +1512,7 @@
         <v>1.83</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.17</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2324,7 +2324,7 @@
         <v>1.42</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.17</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>1.73</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>1.08</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT13" t="n">
         <v>0.64</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
         <v>1.58</v>
@@ -3542,7 +3542,7 @@
         <v>2.42</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>2</v>
@@ -4151,7 +4151,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT21" t="n">
         <v>0.92</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.08</v>
@@ -5369,7 +5369,7 @@
         <v>1.08</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU24" t="n">
         <v>1.97</v>
@@ -5572,7 +5572,7 @@
         <v>1.42</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.38</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU26" t="n">
         <v>2.11</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT27" t="n">
         <v>0.64</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6384,7 +6384,7 @@
         <v>1.08</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
         <v>1.61</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -6790,7 +6790,7 @@
         <v>2.42</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.64</v>
@@ -6993,7 +6993,7 @@
         <v>1.55</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU32" t="n">
         <v>2.41</v>
@@ -7196,7 +7196,7 @@
         <v>1.73</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT36" t="n">
         <v>0.67</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT40" t="n">
         <v>1.58</v>
@@ -8820,7 +8820,7 @@
         <v>1.42</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU41" t="n">
         <v>1.26</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
         <v>0.64</v>
@@ -9223,10 +9223,10 @@
         <v>0.75</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU43" t="n">
         <v>2.58</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT44" t="n">
         <v>1.33</v>
@@ -9632,7 +9632,7 @@
         <v>1.08</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU45" t="n">
         <v>1.62</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU46" t="n">
         <v>1.62</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10241,7 +10241,7 @@
         <v>1.55</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>2.04</v>
@@ -10444,7 +10444,7 @@
         <v>1.73</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>2.09</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT50" t="n">
         <v>2</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT59" t="n">
         <v>0.64</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU60" t="n">
         <v>2.31</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.91</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU62" t="n">
         <v>1.96</v>
@@ -13283,10 +13283,10 @@
         <v>1.2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU63" t="n">
         <v>1.62</v>
@@ -13489,7 +13489,7 @@
         <v>1.73</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU64" t="n">
         <v>1.82</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU65" t="n">
         <v>1.68</v>
@@ -15516,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15719,10 +15719,10 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU75" t="n">
         <v>2.02</v>
@@ -15922,10 +15922,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU76" t="n">
         <v>1.65</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.49</v>
@@ -16328,10 +16328,10 @@
         <v>1.6</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU78" t="n">
         <v>2.05</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1.83</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU82" t="n">
         <v>1.8</v>
@@ -18155,10 +18155,10 @@
         <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -18358,10 +18358,10 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.97</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT89" t="n">
         <v>0.5</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18967,10 +18967,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU91" t="n">
         <v>1.83</v>
@@ -19376,7 +19376,7 @@
         <v>0.83</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU93" t="n">
         <v>1.84</v>
@@ -19782,7 +19782,7 @@
         <v>1.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU95" t="n">
         <v>1.63</v>
@@ -20188,7 +20188,7 @@
         <v>2.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU97" t="n">
         <v>2.29</v>
@@ -21609,7 +21609,7 @@
         <v>1.83</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.66</v>
@@ -21809,7 +21809,7 @@
         <v>1.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT105" t="n">
         <v>1.08</v>
@@ -22012,7 +22012,7 @@
         <v>0.29</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT106" t="n">
         <v>0.5</v>
@@ -22215,10 +22215,10 @@
         <v>1.57</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU107" t="n">
         <v>1.94</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22624,7 +22624,7 @@
         <v>0.83</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.73</v>
@@ -22824,7 +22824,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT110" t="n">
         <v>0.92</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>0.67</v>
@@ -23436,7 +23436,7 @@
         <v>1.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU113" t="n">
         <v>1.6</v>
@@ -23639,7 +23639,7 @@
         <v>2.17</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU114" t="n">
         <v>1.56</v>
@@ -24248,7 +24248,7 @@
         <v>2.42</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU117" t="n">
         <v>2.08</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT122" t="n">
         <v>1.58</v>
@@ -25466,7 +25466,7 @@
         <v>2.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU123" t="n">
         <v>2.05</v>
@@ -25869,7 +25869,7 @@
         <v>0.88</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT125" t="n">
         <v>0.67</v>
@@ -26075,7 +26075,7 @@
         <v>1.08</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26481,7 +26481,7 @@
         <v>2.42</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU128" t="n">
         <v>2.21</v>
@@ -26884,7 +26884,7 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT130" t="n">
         <v>0.92</v>
@@ -27090,7 +27090,7 @@
         <v>1.67</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.81</v>
@@ -27293,7 +27293,7 @@
         <v>2.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU132" t="n">
         <v>1.91</v>
@@ -27696,7 +27696,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT134" t="n">
         <v>1.08</v>
@@ -28305,7 +28305,7 @@
         <v>1.63</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT137" t="n">
         <v>1.08</v>
@@ -28711,7 +28711,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT139" t="n">
         <v>1.58</v>
@@ -29120,7 +29120,7 @@
         <v>2.42</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU141" t="n">
         <v>2.16</v>
@@ -29320,7 +29320,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT142" t="n">
         <v>1.33</v>
@@ -29526,7 +29526,7 @@
         <v>1.73</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU143" t="n">
         <v>1.87</v>
@@ -29729,7 +29729,7 @@
         <v>1.55</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU144" t="n">
         <v>2.14</v>
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT145" t="n">
         <v>2</v>
@@ -30335,7 +30335,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT147" t="n">
         <v>1.08</v>
@@ -31147,7 +31147,7 @@
         <v>0.78</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT151" t="n">
         <v>0.67</v>
@@ -31353,7 +31353,7 @@
         <v>2.17</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU152" t="n">
         <v>1.74</v>
@@ -31756,10 +31756,10 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU154" t="n">
         <v>2.05</v>
@@ -31962,7 +31962,7 @@
         <v>1.08</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU155" t="n">
         <v>1.83</v>
@@ -32162,7 +32162,7 @@
         <v>1.56</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT156" t="n">
         <v>1.33</v>
@@ -32568,10 +32568,10 @@
         <v>0.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU158" t="n">
         <v>2.14</v>
@@ -32774,7 +32774,7 @@
         <v>1.73</v>
       </c>
       <c r="AT159" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU159" t="n">
         <v>1.84</v>
@@ -32977,7 +32977,7 @@
         <v>1.55</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>2.02</v>
@@ -33380,7 +33380,7 @@
         <v>1.6</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT162" t="n">
         <v>1.58</v>
@@ -34801,10 +34801,10 @@
         <v>1.2</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU169" t="n">
         <v>2.17</v>
@@ -35004,10 +35004,10 @@
         <v>1.9</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT170" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU170" t="n">
         <v>1.96</v>
@@ -35410,10 +35410,10 @@
         <v>0.6</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU172" t="n">
         <v>1.42</v>
@@ -35613,10 +35613,10 @@
         <v>1</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU173" t="n">
         <v>1.72</v>
@@ -35816,7 +35816,7 @@
         <v>1.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT174" t="n">
         <v>1.33</v>
@@ -36022,7 +36022,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU175" t="n">
         <v>2.05</v>
@@ -37849,7 +37849,7 @@
         <v>1.73</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU184" t="n">
         <v>1.79</v>
@@ -37901,6 +37901,1224 @@
       </c>
       <c r="BK184" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2818191</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45023.22916666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava II</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>4</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['27', '75']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['7', '84']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>2</v>
+      </c>
+      <c r="R185" t="n">
+        <v>4</v>
+      </c>
+      <c r="S185" t="n">
+        <v>6</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2818185</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45023.58333333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Spartak Myjava</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Rača</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3</v>
+      </c>
+      <c r="K186" t="n">
+        <v>5</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>3</v>
+      </c>
+      <c r="N186" t="n">
+        <v>5</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['28', '41']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['17', '20', '23']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>11</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2</v>
+      </c>
+      <c r="S186" t="n">
+        <v>13</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V186" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2818184</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Tatran Prešov</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['80', '90+2']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>7</v>
+      </c>
+      <c r="R187" t="n">
+        <v>7</v>
+      </c>
+      <c r="S187" t="n">
+        <v>14</v>
+      </c>
+      <c r="T187" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2818186</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Dubnica</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Pohronie</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>1</v>
+      </c>
+      <c r="R188" t="n">
+        <v>5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>6</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2818187</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Slavoj Trebišov</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>5</v>
+      </c>
+      <c r="R189" t="n">
+        <v>5</v>
+      </c>
+      <c r="S189" t="n">
+        <v>10</v>
+      </c>
+      <c r="T189" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2818188</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Žilina II</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['33', '58']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['42', '67']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>5</v>
+      </c>
+      <c r="R190" t="n">
+        <v>11</v>
+      </c>
+      <c r="S190" t="n">
+        <v>16</v>
+      </c>
+      <c r="T190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.08</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU13" t="n">
         <v>1.9</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.08</v>
@@ -5978,7 +5978,7 @@
         <v>1.36</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU27" t="n">
         <v>1.61</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.83</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>0.83</v>
@@ -9023,7 +9023,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU42" t="n">
         <v>1.48</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT48" t="n">
         <v>1.5</v>
@@ -10441,7 +10441,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT49" t="n">
         <v>1.33</v>
@@ -12268,7 +12268,7 @@
         <v>0.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>1.42</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU59" t="n">
         <v>2.03</v>
@@ -13486,7 +13486,7 @@
         <v>1.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT64" t="n">
         <v>1.58</v>
@@ -16531,7 +16531,7 @@
         <v>0.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
         <v>1.08</v>
@@ -16737,7 +16737,7 @@
         <v>0.83</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU80" t="n">
         <v>1.93</v>
@@ -19173,7 +19173,7 @@
         <v>1.83</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU92" t="n">
         <v>1.71</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT100" t="n">
         <v>1.08</v>
@@ -20997,7 +20997,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT101" t="n">
         <v>0.67</v>
@@ -21406,7 +21406,7 @@
         <v>2.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU103" t="n">
         <v>2.1</v>
@@ -23839,7 +23839,7 @@
         <v>2.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT115" t="n">
         <v>2</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT118" t="n">
         <v>1.58</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
         <v>0.92</v>
@@ -25669,7 +25669,7 @@
         <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU124" t="n">
         <v>1.57</v>
@@ -26275,7 +26275,7 @@
         <v>2.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT127" t="n">
         <v>2</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -28102,7 +28102,7 @@
         <v>1.86</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT136" t="n">
         <v>1.33</v>
@@ -28917,7 +28917,7 @@
         <v>2.17</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU140" t="n">
         <v>1.58</v>
@@ -29523,7 +29523,7 @@
         <v>0.75</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT143" t="n">
         <v>1.08</v>
@@ -29726,7 +29726,7 @@
         <v>0.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT144" t="n">
         <v>0.83</v>
@@ -32368,7 +32368,7 @@
         <v>2.42</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU157" t="n">
         <v>2.18</v>
@@ -32771,7 +32771,7 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT159" t="n">
         <v>1.83</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT160" t="n">
         <v>1.33</v>
@@ -35210,7 +35210,7 @@
         <v>1.08</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU171" t="n">
         <v>1.82</v>
@@ -36019,7 +36019,7 @@
         <v>1.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT175" t="n">
         <v>1.58</v>
@@ -37846,7 +37846,7 @@
         <v>1.4</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT184" t="n">
         <v>1.5</v>
@@ -39119,6 +39119,412 @@
       </c>
       <c r="BK190" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2818189</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45025.22916666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Šamorín</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>3</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>4</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['28', '52', '89']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>5</v>
+      </c>
+      <c r="R191" t="n">
+        <v>6</v>
+      </c>
+      <c r="S191" t="n">
+        <v>11</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V191" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2818190</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Slovakia 2. Liga</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45025.22916666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Petržalka akadémia</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Futura Humenné</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>8</v>
+      </c>
+      <c r="R192" t="n">
+        <v>4</v>
+      </c>
+      <c r="S192" t="n">
+        <v>12</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
